--- a/pract1/scraped/LaStampa.xlsx
+++ b/pract1/scraped/LaStampa.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C489"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,200 +415,201 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>Studenti in piazza a Roma e Milano per il No Meloni Day - la diretta</v>
       </c>
       <c r="B2" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/22/news/nasrallah_hezbollah_chi_sono_attacco_israele-14653293/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/video/studenti_in_piazza_a_roma_e_milano_per_il_no_meloni_day_-_la_diretta-14808276/</v>
       </c>
       <c r="C2" t="str">
-        <v>giordano stabile</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Nasrallah resta in piedi e aspetta la grande battaglia</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/22/news/nasrallah_hezbollah_chi_sono_attacco_israele-14653293/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/news/ma_i_tagli_in_stile_musk_a_roma_servirebbero-14807482/</v>
       </c>
       <c r="C3" t="str">
-        <v>giordano stabile</v>
+        <v>Veronica De Romanis</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Ma i tagli in stile Musk a Roma servirebbero</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/22/news/variabile_iraniana_hezbollah_israele-14653418/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/news/ma_i_tagli_in_stile_musk_a_roma_servirebbero-14807482/</v>
       </c>
       <c r="C4" t="str">
-        <v>ettore sequi</v>
+        <v>Veronica De Romanis</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>La variabile iraniana tra Hezbollah e Israele</v>
+        <v/>
       </c>
       <c r="B5" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/22/news/variabile_iraniana_hezbollah_israele-14653418/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/news/lotta_a_parole_vince_chi_illude-14807496/</v>
       </c>
       <c r="C5" t="str">
-        <v>ettore sequi</v>
+        <v>Gabriele Segre</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Se nella lotta a parole vince chi sa illudere</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/21/news/larresto_di_chiara_madre_degli_enigmi_i_due_bimbi_iscritti_allanagrafe_dal_pm-14650838/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/news/lotta_a_parole_vince_chi_illude-14807496/</v>
       </c>
       <c r="C6" t="str">
-        <v>Gianluigi Nuzzi</v>
+        <v>Gabriele Segre</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>L’arresto di Chiara Petrolini, madre degli enigmi</v>
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/21/news/larresto_di_chiara_madre_degli_enigmi_i_due_bimbi_iscritti_allanagrafe_dal_pm-14650838/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/news/bambini_poverta_servizi-14807517/</v>
       </c>
       <c r="C7" t="str">
-        <v>Gianluigi Nuzzi</v>
+        <v>Chiara Saraceno</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>Quei bimbi in povertà nel Paese senza servizi</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/21/news/litalia_e_il_rapporto_col_sesso_a_cinquantanni_da_emanuelle-14650856/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/news/bambini_poverta_servizi-14807517/</v>
       </c>
       <c r="C8" t="str">
-        <v>Fabrizia giuliani</v>
+        <v>Chiara Saraceno</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>L’Italia e il rapporto col sesso a cinquant’anni da Emmanuelle</v>
+        <v/>
       </c>
       <c r="B9" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/21/news/litalia_e_il_rapporto_col_sesso_a_cinquantanni_da_emanuelle-14650856/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/news/la_vergogna_dell_albergatore_che_respinge_i_clienti_israeliani-14807485/</v>
       </c>
       <c r="C9" t="str">
-        <v>Fabrizia giuliani</v>
+        <v>Elena Loewenthal</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v/>
+        <v>La vergogna dell’albergatore che respinge i clienti israeliani</v>
       </c>
       <c r="B10" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/20/news/se_il_mondo_e_vicino_al_punto_di_non_ritorno-14647522/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/news/la_vergogna_dell_albergatore_che_respinge_i_clienti_israeliani-14807485/</v>
       </c>
       <c r="C10" t="str">
-        <v>gabriele segre</v>
+        <v>Elena Loewenthal</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Se il mondo è vicino al punto di non ritorno</v>
+        <v/>
       </c>
       <c r="B11" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/20/news/se_il_mondo_e_vicino_al_punto_di_non_ritorno-14647522/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/news/italia_crescita_poverta_analisi_fornero-14804307/</v>
       </c>
       <c r="C11" t="str">
-        <v>gabriele segre</v>
+        <v>di Elsa Fornero</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>Perché l’Italia non sale sul treno della crescita</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.lastampa.it/editoriali/l-editoriale-andrea-malaguti/2024/09/22/news/la_lezione_di_pannella_e_leuropa_allo_sbando-14653427/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/news/italia_crescita_poverta_analisi_fornero-14804307/</v>
       </c>
       <c r="C12" t="str">
-        <v>andrea malaguti</v>
+        <v>di Elsa Fornero</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>La lezione di Pannella e l’Europa allo sbando</v>
+        <v/>
       </c>
       <c r="B13" t="str">
-        <v>https://www.lastampa.it/editoriali/l-editoriale-andrea-malaguti/2024/09/22/news/la_lezione_di_pannella_e_leuropa_allo_sbando-14653427/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/news/mercato_auto_ue_tridico-14804322/</v>
       </c>
       <c r="C13" t="str">
-        <v>andrea malaguti</v>
+        <v>pasquale tridico*</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v/>
+        <v>Un maxi piano Ue per aiutare l’auto</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/22/news/napoli_esplosione_in_una_palazzina_si_scava_per_salvare_tre_bambini_e_i_genitori_si_sentono_le_voci-14653743/</v>
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/news/mercato_auto_ue_tridico-14804322/</v>
       </c>
       <c r="C14" t="str">
-        <v>Не найден</v>
+        <v>pasquale tridico*</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Napoli, esplode una palazzina: morti due bambini. Salvi il papà e il fratello, si cerca la madre</v>
+        <v/>
       </c>
       <c r="B15" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/22/news/napoli_esplosione_in_una_palazzina_si_scava_per_salvare_tre_bambini_e_i_genitori_si_sentono_le_voci-14653743/</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/pil_italia_2024_ue-14808327/</v>
       </c>
       <c r="C15" t="str">
-        <v>Не найден</v>
+        <v>dal nostro corrispondente Marco Bresolin</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>Bruxelles taglia le stime del Pil italiano nel 2024: 0,7%. "Il protezionismo minaccia il commercio mondiale"</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/22/news/molfetta_sparatoria_in_un_locale_uccisa_una_ragazza_di_19_anni-14653736/</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/pil_italia_2024_ue-14808327/</v>
       </c>
       <c r="C16" t="str">
-        <v>Не найден</v>
+        <v>dal nostro corrispondente Marco Bresolin</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Molfetta, sparatoria in un locale: uccisa una ragazza di 19 anni</v>
+        <v/>
       </c>
       <c r="B17" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/22/news/molfetta_sparatoria_in_un_locale_uccisa_una_ragazza_di_19_anni-14653736/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/14/news/musk_teheran_usa-14807521/</v>
       </c>
       <c r="C17" t="str">
-        <v>Не найден</v>
+        <v>dal nostro corrispondente Alberto Simoni</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v/>
+        <v>Pieni poteri Musk: tratta con l'ambasciatore iraniano</v>
       </c>
       <c r="B18" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/diretta/israele_hamas_guerra_medio_oriente_oggi-14653596/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/14/news/musk_teheran_usa-14807521/</v>
       </c>
       <c r="C18" t="str">
-        <v>a cura della redazione</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Guerra in Medio Oriente, l’esercito israeliano fa irruzione e chiude la sede di Al Jazeera a Ramallah. Idf: “Oltre 100 razzi lanciati dal Libano”</v>
+        <v>dal nostro corrispondente Alberto Simoni</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Elon cerca lavoratori con “QI super alto”: “Niente paga e 80 ore a settimana per tagliare i costi del governo”
+NADIA FERRIGO</v>
       </c>
       <c r="B19" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/diretta/israele_hamas_guerra_medio_oriente_oggi-14653596/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/musk_lavoratori_qi_alto-14808286/</v>
       </c>
       <c r="C19" t="str">
-        <v>a cura della redazione</v>
+        <v>dal nostro corrispondente Alberto Simoni</v>
       </c>
     </row>
     <row r="20">
@@ -616,21 +617,21 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>https://www.lastampa.it/economia/2024/09/22/news/condono_fisco_tasse_stop-14653380/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/lara_trump_al_senato-14807665/</v>
       </c>
       <c r="C20" t="str">
-        <v>ALESSANDRO BARBERA</v>
+        <v>dal nostro corrispondente Alberto Simoni</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Maxi condono per 6 anni, arriva lo stop del Tesoro</v>
+        <v>Una Trump al Senato: Lara, la moglie del figlio Eric, potrebbe prendere il posto di Marco Rubio</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.lastampa.it/economia/2024/09/22/news/condono_fisco_tasse_stop-14653380/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/lara_trump_al_senato-14807665/</v>
       </c>
       <c r="C21" t="str">
-        <v>ALESSANDRO BARBERA</v>
+        <v>dal nostro corrispondente Alberto Simoni</v>
       </c>
     </row>
     <row r="22">
@@ -638,21 +639,21 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/news/manovra_fiscale_tajani_banche-14653410/</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/usa_kennedy_sanita_vaccini_trump-14808325/</v>
       </c>
       <c r="C22" t="str">
-        <v>Ilario Lombardo .</v>
+        <v>Dal nostro corrispondente Alberto Simoni</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Tassa sugli extraprofitti, Tajani: “Dalle banche solo un contributo”</v>
+        <v>La nomina di Kennedy alla Sanità fa crollare le azioni dei produttori di vaccini</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/news/manovra_fiscale_tajani_banche-14653410/</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/usa_kennedy_sanita_vaccini_trump-14808325/</v>
       </c>
       <c r="C23" t="str">
-        <v>Ilario Lombardo .</v>
+        <v>Dal nostro corrispondente Alberto Simoni</v>
       </c>
     </row>
     <row r="24">
@@ -660,21 +661,21 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/news/caso_sangiuliano_boccia_indagata_pressioni_sulla_moglie_del_ministro-14653324/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/l_europa_si_prepari_allo_tsunami_dei_dazi-14807416/</v>
       </c>
       <c r="C24" t="str">
-        <v>irene famà, grazia longo</v>
+        <v>Bill Emmott</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Caso Sangiuliano. Le chat per dire tutto alla moglie e i video segreti: nel telefono sequestrato a Boccia c’è la chiave dell’indagine</v>
+        <v>L’Europa si prepari allo tsunami dei dazi</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/news/caso_sangiuliano_boccia_indagata_pressioni_sulla_moglie_del_ministro-14653324/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/l_europa_si_prepari_allo_tsunami_dei_dazi-14807416/</v>
       </c>
       <c r="C25" t="str">
-        <v>irene famà, grazia longo</v>
+        <v>Bill Emmott</v>
       </c>
     </row>
     <row r="26">
@@ -682,21 +683,21 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/news/bonaccini_alluvione_musumeci-14653283/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/c_era_una_volta_twitter_io_trasloco_su_bluesky-14807282/</v>
       </c>
       <c r="C26" t="str">
-        <v>FRANCESCA SCHIANCHI</v>
+        <v>Riccardo Luna</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Bonaccini e l’alluvione: “Polemiche indecenti”</v>
+        <v>C’era una volta Twitter, io trasloco su BlueSky</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/news/bonaccini_alluvione_musumeci-14653283/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/c_era_una_volta_twitter_io_trasloco_su_bluesky-14807282/</v>
       </c>
       <c r="C27" t="str">
-        <v>FRANCESCA SCHIANCHI</v>
+        <v>Riccardo Luna</v>
       </c>
     </row>
     <row r="28">
@@ -704,21 +705,21 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/news/alluvione_emilia_ciriani-14653300/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/sciopero_scuola_15_novembre_2024-14808079/</v>
       </c>
       <c r="C28" t="str">
-        <v>Не найден</v>
+        <v>Ugo Leo</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Alluvione, Luca Ciriani: “L’Emilia dovrebbe fare mea culpa per le risorse che non ha speso”</v>
+        <v>Sciopero nazionale della scuola, migliaia di studenti e docenti in piazza: ecco i motivi</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/news/alluvione_emilia_ciriani-14653300/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/sciopero_scuola_15_novembre_2024-14808079/</v>
       </c>
       <c r="C29" t="str">
-        <v>Не найден</v>
+        <v>Ugo Leo</v>
       </c>
     </row>
     <row r="30">
@@ -726,21 +727,21 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>https://www.lastampa.it/cultura/2024/09/22/news/safran_foer_social_trump_pericolo-14653218/</v>
+        <v>https://www.lastampa.it/politica/2024/11/15/news/la_consulta_smonta_l_autonomia-14807465/</v>
       </c>
       <c r="C30" t="str">
-        <v>ANNALISA CUZZOCREA</v>
+        <v>Francesco Grignetti</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Safran Foer: “Social e Trump un pericolo. Medioriente salvo senza Bibi e Hamas”</v>
+        <v>La Consulta smonta l’autonomia</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.lastampa.it/cultura/2024/09/22/news/safran_foer_social_trump_pericolo-14653218/</v>
+        <v>https://www.lastampa.it/politica/2024/11/15/news/la_consulta_smonta_l_autonomia-14807465/</v>
       </c>
       <c r="C31" t="str">
-        <v>ANNALISA CUZZOCREA</v>
+        <v>Francesco Grignetti</v>
       </c>
     </row>
     <row r="32">
@@ -748,21 +749,21 @@
         <v/>
       </c>
       <c r="B32" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/21/news/addio_paola_marella_architetta_e_agente_immobiliare-14653469/</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/mps_nozze_bpm_borsa-14807356/</v>
       </c>
       <c r="C32" t="str">
-        <v>LUIGI GRASSIA</v>
+        <v>Gianluca Paolucci</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Addio a Paola Marella, la regina degli agenti immobiliari tv</v>
+        <v>Mps, il mercato punta sulle nozze con Bpm. Per la finanza nuovo “polo tricolore”</v>
       </c>
       <c r="B33" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/21/news/addio_paola_marella_architetta_e_agente_immobiliare-14653469/</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/mps_nozze_bpm_borsa-14807356/</v>
       </c>
       <c r="C33" t="str">
-        <v>LUIGI GRASSIA</v>
+        <v>Gianluca Paolucci</v>
       </c>
     </row>
     <row r="34">
@@ -770,21 +771,21 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/22/news/il_superyacht_affondato_che_fa_gola_agli_007-14653296/</v>
+        <v>https://www.lastampa.it/politica/2024/11/15/news/biglietto_gratis_film_berlinguer_belluno-14807969/</v>
       </c>
       <c r="C34" t="str">
-        <v>riccardo arena</v>
+        <v>Laura Berlinghieri</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Bayesian, il mistero degli hard disk segreti finiti negli abissi con il superyacht. Sfida tra 007</v>
+        <v>Il Pd di Belluno regala ai giovani il biglietto del film su Berlinguer: “Così lo conoscono”</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/22/news/il_superyacht_affondato_che_fa_gola_agli_007-14653296/</v>
+        <v>https://www.lastampa.it/politica/2024/11/15/news/biglietto_gratis_film_berlinguer_belluno-14807969/</v>
       </c>
       <c r="C35" t="str">
-        <v>riccardo arena</v>
+        <v>Laura Berlinghieri</v>
       </c>
     </row>
     <row r="36">
@@ -792,21 +793,21 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/22/news/vago_di_lavagno_madre_spara_figlio-14653243/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/nomine_la_faida_spagnola_ora_spaventa_ursula-14807441/</v>
       </c>
       <c r="C36" t="str">
-        <v>laura berlinghieri</v>
+        <v>dal nostro corrispondente Marco Bresolin</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Verona, Alessandra Spiazzi aveva una pistola nascosta in casa da anni. Così ha sparato al figlio di 15 anni</v>
+        <v>Nomine, la faida spagnola ora spaventa Ursula</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/22/news/vago_di_lavagno_madre_spara_figlio-14653243/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/nomine_la_faida_spagnola_ora_spaventa_ursula-14807441/</v>
       </c>
       <c r="C37" t="str">
-        <v>laura berlinghieri</v>
+        <v>dal nostro corrispondente Marco Bresolin</v>
       </c>
     </row>
     <row r="38">
@@ -814,21 +815,21 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>https://www.lastampa.it/torino/2024/09/22/news/strage_treno_brandizzo_testimone_alessandro_cantamessa-14653772/</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/freccia_tricolore_morte_laura_bird_strike-14807267/</v>
       </c>
       <c r="C38" t="str">
-        <v>giuseppe legato</v>
+        <v>giuseppe legato, elisa sola</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Spunta un nuovo testimone per la strage di Brandizzo: “Lavoravamo sempre così. Mi opposi e la ditta non mi pagò”</v>
+        <v>La Freccia Tricolore precipitata dopo lo scontro con un gabbiano: così è morta la piccola Laura a Caselle. Lo rivela una foto</v>
       </c>
       <c r="B39" t="str">
-        <v>https://www.lastampa.it/torino/2024/09/22/news/strage_treno_brandizzo_testimone_alessandro_cantamessa-14653772/</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/freccia_tricolore_morte_laura_bird_strike-14807267/</v>
       </c>
       <c r="C39" t="str">
-        <v>giuseppe legato</v>
+        <v>giuseppe legato, elisa sola</v>
       </c>
     </row>
     <row r="40">
@@ -836,21 +837,21 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <v>https://www.lastampa.it/torino/2024/09/22/news/moncalieri_truffa_immobiliare_pensionati_poliziotto_scontro_legale-14653791/</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/arrestato_stupro_valentino_test_dna-14807979/</v>
       </c>
       <c r="C40" t="str">
-        <v>elisa sola</v>
+        <v>Elisa Sola</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Il loft dei sogni è una bufala con la muffa, due pensionati denunciano il poliziotto amico di Moggi</v>
+        <v>Arrestato per lo stupro al Valentino chiede il test del Dna: “Non sono stato io”</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.lastampa.it/torino/2024/09/22/news/moncalieri_truffa_immobiliare_pensionati_poliziotto_scontro_legale-14653791/</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/arrestato_stupro_valentino_test_dna-14807979/</v>
       </c>
       <c r="C41" t="str">
-        <v>elisa sola</v>
+        <v>Elisa Sola</v>
       </c>
     </row>
     <row r="42">
@@ -858,21 +859,21 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/news/zelensky_guerra_vittoria_missili_nato-14653334/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/margaret_spada_autopsia_rinoplastica-14808117/</v>
       </c>
       <c r="C42" t="str">
-        <v>alberto simoni</v>
+        <v>Grazia Longo</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Zelensky anticipa il piano: “Vittoria con i missili Nato, Biden può fare la Storia”</v>
+        <v>Tutti i dubbi sull’intervento al naso di Agata Margaret Spada. Oggi l’autopsia</v>
       </c>
       <c r="B43" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/news/zelensky_guerra_vittoria_missili_nato-14653334/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/margaret_spada_autopsia_rinoplastica-14808117/</v>
       </c>
       <c r="C43" t="str">
-        <v>alberto simoni</v>
+        <v>Grazia Longo</v>
       </c>
     </row>
     <row r="44">
@@ -880,21 +881,21 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/news/nella_nuova_bakhmut_sotto_le_bombe_di_putin-14653355/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/14/news/ultra_curva_nord_inter_beretta-14807383/</v>
       </c>
       <c r="C44" t="str">
-        <v>francesco semprini</v>
+        <v>Monica Serra, Andrea Siravo</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>La nuova Bakhmut sotto le bombe: “Viviamo sottoterra ma non lasceremo mai le nostre case”</v>
+        <v>L'ex capo ultrà della Curva Nord dell'Inter Andrea Beretta si è pentito</v>
       </c>
       <c r="B45" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/news/nella_nuova_bakhmut_sotto_le_bombe_di_putin-14653355/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/14/news/ultra_curva_nord_inter_beretta-14807383/</v>
       </c>
       <c r="C45" t="str">
-        <v>francesco semprini</v>
+        <v>Monica Serra, Andrea Siravo</v>
       </c>
     </row>
     <row r="46">
@@ -902,21 +903,21 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/diretta/russia_ucraina_guerra_news_oggi-14653599/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/leporano_femminicidio_silvana_la_rocca-14808041/</v>
       </c>
       <c r="C46" t="str">
-        <v>a cura della redazione</v>
+        <v>Valeria D'autilia</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Guerra Russia-Ucraina, Kiev insiste sui missili, Mosca boccia il summit di pace</v>
+        <v>Il mistero di Silvana La Rocca, trovata morta nel suo giardino con diverse ferite</v>
       </c>
       <c r="B47" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/diretta/russia_ucraina_guerra_news_oggi-14653599/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/leporano_femminicidio_silvana_la_rocca-14808041/</v>
       </c>
       <c r="C47" t="str">
-        <v>a cura della redazione</v>
+        <v>Valeria D'autilia</v>
       </c>
     </row>
     <row r="48">
@@ -924,21 +925,21 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/news/iran_esplosione_miniera_carbone_morti-14653691/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/save_the_children_bimbi_poverta-14808003/</v>
       </c>
       <c r="C48" t="str">
-        <v>Не найден</v>
+        <v>Valeria D'autilia</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Iran, esplode una miniera di carbone: 30 morti. Ancora 22 lavoratori intrappolati</v>
+        <v>Marzia, tre figli e un lavoro a progetto: “Sogno un Paese che possa garantire a tutti i bambini le stesse possibilità”</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/news/iran_esplosione_miniera_carbone_morti-14653691/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/save_the_children_bimbi_poverta-14808003/</v>
       </c>
       <c r="C49" t="str">
-        <v>Не найден</v>
+        <v>Valeria D'autilia</v>
       </c>
     </row>
     <row r="50">
@@ -946,109 +947,109 @@
         <v/>
       </c>
       <c r="B50" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/news/sparatoria_usa_alabama_morti_feriti-14653974/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/la_morte_a_belgrado_dello_chef_e_dissidente_anti-guerra_alexei_zimin_il_suo_ristorante_a_londra_nel_mirino_di_putin-14808204/</v>
       </c>
       <c r="C50" t="str">
-        <v>Не найден</v>
+        <v>Jacopo Iacoboni</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Spari contro la folla in Alabama: 4 morti e decine feriti</v>
+        <v>Il mistero della morte a Belgrado dello chef e dissidente russo Alexei Zimin, “il suo ristorante a Londra nel mirino di Putin”</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/news/sparatoria_usa_alabama_morti_feriti-14653974/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/la_morte_a_belgrado_dello_chef_e_dissidente_anti-guerra_alexei_zimin_il_suo_ristorante_a_londra_nel_mirino_di_putin-14808204/</v>
       </c>
       <c r="C51" t="str">
-        <v>Не найден</v>
+        <v>Jacopo Iacoboni</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>"Fagioli dacci le quote", tifosi del Napoli irridono lo juventino, condannato per scommesse illegali</v>
+        <v/>
       </c>
       <c r="B52" t="str">
-        <v>https://www.lastampa.it/sport/calcio/2024/09/22/video/fagioli_dacci_le_quote_tifosi_del_napoli_irridono_lo_juventino_condannato_per_scommesse_illegali-14653951/</v>
+        <v>https://www.lastampa.it/speciale/sport/atp-finals-2024/2024/11/14/news/risultati_sinner_medvedev_atp_finals-14807348/</v>
       </c>
       <c r="C52" t="str">
-        <v>Не найден</v>
+        <v>Stefano Semeraro</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v/>
+        <v>Atp Finals, Sinner invincibile: batte Medvedev 6-3 6-4 ed è primo nel girone</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/video/carcere_salis_sono_abolizionista_cosi_non_serve_a_nulla-14653735/</v>
+        <v>https://www.lastampa.it/speciale/sport/atp-finals-2024/2024/11/14/news/risultati_sinner_medvedev_atp_finals-14807348/</v>
       </c>
       <c r="C53" t="str">
-        <v>Не найден</v>
+        <v>Stefano Semeraro</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Carcere, Salis: "Sono abolizionista, così non serve a nulla"</v>
+        <v/>
       </c>
       <c r="B54" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/video/carcere_salis_sono_abolizionista_cosi_non_serve_a_nulla-14653735/</v>
+        <v>https://www.lastampa.it/sport/tennis/2024/11/14/video/atp_tennis_santopadre_la_forza_di_sinner_mette_in_soggezione_gli_avversari_-14806320/</v>
       </c>
       <c r="C54" t="str">
-        <v>Не найден</v>
+        <v>di Paolo Brusorio e Stefano Semeraro</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v/>
+        <v>Santopadre: "La forza di Sinner mette in soggezione gli avversari"</v>
       </c>
       <c r="B55" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/video/zercocalcare_egemonia_culturale_della_destra_occupano_posti_ma_non_funziona_lo_stesso_ha_fatto_la_sinistra-14653747/</v>
+        <v>https://www.lastampa.it/sport/tennis/2024/11/14/video/atp_tennis_santopadre_la_forza_di_sinner_mette_in_soggezione_gli_avversari_-14806320/</v>
       </c>
       <c r="C55" t="str">
-        <v>Не найден</v>
+        <v>di Paolo Brusorio e Stefano Semeraro</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Zercocalcare: "Egemonia culturale? La destra fa come la sinistra: occupa posti“</v>
+        <v/>
       </c>
       <c r="B56" t="str">
-        <v>https://www.lastampa.it/politica/2024/09/22/video/zercocalcare_egemonia_culturale_della_destra_occupano_posti_ma_non_funziona_lo_stesso_ha_fatto_la_sinistra-14653747/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/15/news/xfactor_2024_pagelle_quarto_live-14807660/</v>
       </c>
       <c r="C56" t="str">
-        <v>Не найден</v>
+        <v>Andrea Cominetti</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v/>
+        <v>Le pagelle del quarto Live di X Factor: arriva la doppia eliminazione</v>
       </c>
       <c r="B57" t="str">
-        <v>https://www.lastampa.it/speciale/benessere/amore-non-e-solo-amare/2024/09/22/video/randone_come_dimenticare_ex-14653635/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/15/news/xfactor_2024_pagelle_quarto_live-14807660/</v>
       </c>
       <c r="C57" t="str">
-        <v>VALERIA RANDONE</v>
+        <v>Andrea Cominetti</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>"Come faccio a dimenticare il mio ex?"</v>
+        <v/>
       </c>
       <c r="B58" t="str">
-        <v>https://www.lastampa.it/speciale/benessere/amore-non-e-solo-amare/2024/09/22/video/randone_come_dimenticare_ex-14653635/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/15/news/pupi_avati_castellitto_non_e_di_destra-14807227/</v>
       </c>
       <c r="C58" t="str">
-        <v>VALERIA RANDONE</v>
+        <v>Fulvia Caprara</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Una voragine improvvisa in mezzo alla strada: il camion inghiottito dalla buca</v>
+        <v>Pupi Avati: “Castellitto non è di destra, ma una persona pensante. Ha pagato la sua visibilità”</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/21/video/una_voragine_si_apre_allimprovviso_in_mezzo_alla_strada_il_camion_sparisce_nellenorme_buca-14651677/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/15/news/pupi_avati_castellitto_non_e_di_destra-14807227/</v>
       </c>
       <c r="C59" t="str">
-        <v>Не найден</v>
+        <v>Fulvia Caprara</v>
       </c>
     </row>
     <row r="60">
@@ -1056,21 +1057,21 @@
         <v/>
       </c>
       <c r="B60" t="str">
-        <v>https://www.lastampa.it/video/socialnews/2024/09/21/video/una_seconda_luna_per_la_terra_ecco_lasteroide_che_orbitera_attorno_al_nostro_pianeta-14651921/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/pillitteri_ex_sindaco_milano_anni_80-14807432/</v>
       </c>
       <c r="C60" t="str">
-        <v>Не найден</v>
+        <v>Francesco Moscatelli</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Una "seconda Luna" per la Terra: ecco l'asteroide che orbiterà attorno al nostro pianeta</v>
+        <v>Paolo Pillitteri: “Le modelle dopo il terrorismo, così inventai la Milano Anni 80”</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.lastampa.it/video/socialnews/2024/09/21/video/una_seconda_luna_per_la_terra_ecco_lasteroide_che_orbitera_attorno_al_nostro_pianeta-14651921/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/pillitteri_ex_sindaco_milano_anni_80-14807432/</v>
       </c>
       <c r="C61" t="str">
-        <v>Не найден</v>
+        <v>Francesco Moscatelli</v>
       </c>
     </row>
     <row r="62">
@@ -1078,7 +1079,7 @@
         <v/>
       </c>
       <c r="B62" t="str">
-        <v>https://www.lastampa.it/torino/2024/09/20/video/la_banda_dei_tombini_colpisce_ancora_ecco_il_film_della_spaccata-14649458/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/p_diddy_ha_abusato_sessualmente_di_justin_bieber-14807181/</v>
       </c>
       <c r="C62" t="str">
         <v>Не найден</v>
@@ -1086,10 +1087,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>La banda dei tombini colpisce ancora, ecco il film della spaccata</v>
+        <v>“P. Diddy ha abusato sessualmente di Justin Bieber”: la rivelazione dell’ex produttore Knight</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.lastampa.it/torino/2024/09/20/video/la_banda_dei_tombini_colpisce_ancora_ecco_il_film_della_spaccata-14649458/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/p_diddy_ha_abusato_sessualmente_di_justin_bieber-14807181/</v>
       </c>
       <c r="C63" t="str">
         <v>Не найден</v>
@@ -1097,10 +1098,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>MotoGp, la gara di sprint race vinta da Bagnaia vissuta con Guido Meda dalla cabina di commento</v>
+        <v/>
       </c>
       <c r="B64" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/22/video/motogp_la_gara_di_sprint_race_vinta_da_bagnaia_vissuta_con_guido_meda_dalla_cabina_di_commento-14653731/</v>
+        <v>https://www.lastampa.it/sport/2024/11/14/news/mike_tyson_jake_paul_arlington-14805664/</v>
       </c>
       <c r="C64" t="str">
         <v>Не найден</v>
@@ -1108,10 +1109,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v/>
+        <v>Mike Tyson torna sul ring a 58 anni per sfidare lo youtuber Jake Paul. Perché il pugile è ad alto rischio</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/20/video/elezioni_usa_dibattito_armi_kamala_harris-14648247/</v>
+        <v>https://www.lastampa.it/sport/2024/11/14/news/mike_tyson_jake_paul_arlington-14805664/</v>
       </c>
       <c r="C65" t="str">
         <v>Не найден</v>
@@ -1119,10 +1120,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Presidenziali Usa, Kamala Harris a Oprah Winfrey: "Se un intruso entra in casa, sparo"</v>
+        <v/>
       </c>
       <c r="B66" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/20/video/elezioni_usa_dibattito_armi_kamala_harris-14648247/</v>
+        <v>https://www.lastampa.it/speciale/sport/atp-finals-2024/2024/11/14/video/hai_paura_jannik_la_domanda_che_commuove_della_piccola_francesca-14804996/</v>
       </c>
       <c r="C66" t="str">
         <v>Не найден</v>
@@ -1130,10 +1131,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v/>
+        <v>"Hai paura Jannik?": la domanda che commuove della piccola Francesca</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/video/israele_insediamenti_nel_nord_colpiti_dai_missili_di_hezbollah_le_immagini_della_distruzione-14653881/</v>
+        <v>https://www.lastampa.it/speciale/sport/atp-finals-2024/2024/11/14/video/hai_paura_jannik_la_domanda_che_commuove_della_piccola_francesca-14804996/</v>
       </c>
       <c r="C67" t="str">
         <v>Не найден</v>
@@ -1141,13 +1142,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Case e auto distrutte, gente in fuga: così i missili di Hezbollah hanno colpito il Nord di Israele</v>
+        <v>Pierfrancesco Favino: "In Napoli-New York, una storia di immigrazione in cui la solidarietà vince su tutto"</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.lastampa.it/esteri/2024/09/22/video/israele_insediamenti_nel_nord_colpiti_dai_missili_di_hezbollah_le_immagini_della_distruzione-14653881/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/video/pierfrancesco_favino_in_napoli-new_york_una_storia_di_immigrazione_in_cui_la_solidarieta_vince_su_tutto-14804688/</v>
       </c>
       <c r="C68" t="str">
-        <v>Не найден</v>
+        <v>fulvia caprara</v>
       </c>
     </row>
     <row r="69">
@@ -1155,7 +1156,7 @@
         <v/>
       </c>
       <c r="B69" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/22/video/il_commovente_omaggio_del_bernabeu_a_toto_schillaci_sulle_note_di_morricone-14653742/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/14/video/florida_trump_e_musk_cantano_god_bless_america_con_il_tenore_chris_macchio-14804847/</v>
       </c>
       <c r="C69" t="str">
         <v>Не найден</v>
@@ -1163,10 +1164,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Il commovente omaggio del Bernabeu a Totò Schillaci sulle note di Morricone</v>
+        <v>Florida, Trump e Musk cantano "God Bless America" con il tenore Chris Macchio</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/22/video/il_commovente_omaggio_del_bernabeu_a_toto_schillaci_sulle_note_di_morricone-14653742/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/14/video/florida_trump_e_musk_cantano_god_bless_america_con_il_tenore_chris_macchio-14804847/</v>
       </c>
       <c r="C70" t="str">
         <v>Не найден</v>
@@ -1177,21 +1178,21 @@
         <v/>
       </c>
       <c r="B71" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/20/video/neonati_sepolti_arrestata_chiara_petrolini_il_procuratore_di_parma_fatto_drammatico_che_suscita_sgomento-14648944/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/14/video/alieni_dal_granchio_blu_alla_formica_di_fuoco_le_specie_invasive_piu_pericoloseditalia-14805064/</v>
       </c>
       <c r="C71" t="str">
-        <v>Не найден</v>
+        <v>di Davide Cavalleri</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Neonati sepolti, arrestata Chiara Petrolini. Il procuratore di Parma: "Fatto drammatico che suscita sgomento"</v>
+        <v>Alieni. Dal granchio blu alla formica di fuoco: le specie invasive più pericolose d'Italia</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/20/video/neonati_sepolti_arrestata_chiara_petrolini_il_procuratore_di_parma_fatto_drammatico_che_suscita_sgomento-14648944/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/14/video/alieni_dal_granchio_blu_alla_formica_di_fuoco_le_specie_invasive_piu_pericoloseditalia-14805064/</v>
       </c>
       <c r="C72" t="str">
-        <v>Не найден</v>
+        <v>di Davide Cavalleri</v>
       </c>
     </row>
     <row r="73">
@@ -1199,7 +1200,7 @@
         <v/>
       </c>
       <c r="B73" t="str">
-        <v>https://www.lastampa.it/rubriche/cinesettimana/2024/09/20/video/cinesettimana_triller_noir_romanticismo_queer_e_bodybuilding_kristen_steward_nel_nuovo_film_love_live_bleeding-14648805/</v>
+        <v>https://www.lastampa.it/speciale/esteri/elezioni-usa-2024/2024/11/15/video/elonia_trump_musk_first_lady_melania-14808016/</v>
       </c>
       <c r="C73" t="str">
         <v>Не найден</v>
@@ -1207,10 +1208,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Cinesettimana, triller Noir, romanticismo Queer e bodybuilding: Kristen Steward nel nuovo film "Love, Live, Bleeding"</v>
+        <v>"Elonia Trump", Musk diventa la nuova First Lady sui social: i meme della coppia sono esilaranti</v>
       </c>
       <c r="B74" t="str">
-        <v>https://www.lastampa.it/rubriche/cinesettimana/2024/09/20/video/cinesettimana_triller_noir_romanticismo_queer_e_bodybuilding_kristen_steward_nel_nuovo_film_love_live_bleeding-14648805/</v>
+        <v>https://www.lastampa.it/speciale/esteri/elezioni-usa-2024/2024/11/15/video/elonia_trump_musk_first_lady_melania-14808016/</v>
       </c>
       <c r="C74" t="str">
         <v>Не найден</v>
@@ -1221,7 +1222,7 @@
         <v/>
       </c>
       <c r="B75" t="str">
-        <v>https://www.lastampa.it/torinosette/2024/09/20/video/torinosette_terra_madre_apre_il_pianeta_del_cibo_sano_e_giusto-14648487/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/video/santo_romano_il_colpo_al_petto_e_gli_amici_lomicidio_del_19enne_ripreso_dalle_telecamere-14808137/</v>
       </c>
       <c r="C75" t="str">
         <v>Не найден</v>
@@ -1229,10 +1230,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>TorinoSette, Terra Madre apre il pianeta del cibo sano e giusto</v>
+        <v>Santo Romano: il colpo al petto e gli amici. L’omicidio del 19enne ripreso dalle telecamere</v>
       </c>
       <c r="B76" t="str">
-        <v>https://www.lastampa.it/torinosette/2024/09/20/video/torinosette_terra_madre_apre_il_pianeta_del_cibo_sano_e_giusto-14648487/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/video/santo_romano_il_colpo_al_petto_e_gli_amici_lomicidio_del_19enne_ripreso_dalle_telecamere-14808137/</v>
       </c>
       <c r="C76" t="str">
         <v>Не найден</v>
@@ -1243,229 +1244,227 @@
         <v/>
       </c>
       <c r="B77" t="str">
-        <v>https://www.lastampa.it/rubriche/buongiorno/2024/09/21/news/imbecille_feltri-14650470/</v>
+        <v>https://www.lastampa.it/speciale/esteri/elezioni-usa-2024/2024/11/14/video/alan_friedman_elon_musk_pericolo-14805255/</v>
       </c>
       <c r="C77" t="str">
-        <v>Mattia Feltri</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>L’imbecille</v>
+        <v>Ecco perché Musk è molto pericoloso per l’America e per il mondo</v>
       </c>
       <c r="B78" t="str">
-        <v>https://www.lastampa.it/rubriche/buongiorno/2024/09/21/news/imbecille_feltri-14650470/</v>
+        <v>https://www.lastampa.it/speciale/esteri/elezioni-usa-2024/2024/11/14/video/alan_friedman_elon_musk_pericolo-14805255/</v>
       </c>
       <c r="C78" t="str">
-        <v>Mattia Feltri</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>La retromarcia di Musumeci e Fratelli d’Italia</v>
+        <v/>
       </c>
       <c r="B79" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/22/news/musumeci_meloni_assicurazione_alluvione-14653315/</v>
+        <v>https://www.lastampa.it/rubriche/cinesettimana/2024/11/15/video/cinesettimana_otello_sul_litorale_di_ostia_diventa_una_storia_di_femminicidio_e_di_malaffare-14808123/</v>
       </c>
       <c r="C79" t="str">
-        <v>MARCELLO SORGI</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Il giornalone</v>
+        <v>Cinesettimana, "Otello" sul litorale di Ostia diventa una storia di femminicidio  e di malaffare</v>
       </c>
       <c r="B80" t="str">
-        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/09/22/news/il_giornalone-14653759/</v>
+        <v>https://www.lastampa.it/rubriche/cinesettimana/2024/11/15/video/cinesettimana_otello_sul_litorale_di_ostia_diventa_una_storia_di_femminicidio_e_di_malaffare-14808123/</v>
       </c>
       <c r="C80" t="str">
-        <v>Luca Bottura</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Paragoni</v>
+        <v/>
       </c>
       <c r="B81" t="str">
-        <v>https://www.lastampa.it/rubriche/jena/2024/09/22/news/paragoni-14653005/</v>
+        <v>https://www.lastampa.it/torino/2024/11/14/video/torino_marchisio_e_sonego_allinaugurazione_dei_nuovi_campi_da_gioco_di_corso_vercelli_lo_sport_crea_amicizia-14805967/</v>
       </c>
       <c r="C81" t="str">
-        <v>JENA@LASTAMPA.IT</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v/>
+        <v>Torino, Marchisio e Sonego all'inaugurazione dei nuovi campi da gioco di corso Vercelli: "Lo sport crea amicizia"</v>
       </c>
       <c r="B82" t="str">
-        <v>https://www.lastampa.it/sport/calcio/2024/09/22/news/muro_bremer_locatelli_ce_male_mckennie-14653345/</v>
+        <v>https://www.lastampa.it/torino/2024/11/14/video/torino_marchisio_e_sonego_allinaugurazione_dei_nuovi_campi_da_gioco_di_corso_vercelli_lo_sport_crea_amicizia-14805967/</v>
       </c>
       <c r="C82" t="str">
-        <v>nicola balice</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Juve-Napoli 0-0: muro Bremer, Locatelli c’è. Male McKennie</v>
+        <v/>
       </c>
       <c r="B83" t="str">
-        <v>https://www.lastampa.it/sport/calcio/2024/09/22/news/muro_bremer_locatelli_ce_male_mckennie-14653345/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/09/video/trump_alla_casa_bianca_tutte_le_tappe_verso_linsediamento-14792668/</v>
       </c>
       <c r="C83" t="str">
-        <v>nicola balice</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v/>
+        <v>Trump alla Casa Bianca: tutte le tappe verso l'insediamento</v>
       </c>
       <c r="B84" t="str">
-        <v>https://www.lastampa.it/sport/calcio/2024/09/22/news/solida_juve_ma_i_bianconeri_vanno_ancora_in_bianco-14653338/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/09/video/trump_alla_casa_bianca_tutte_le_tappe_verso_linsediamento-14792668/</v>
       </c>
       <c r="C84" t="str">
-        <v>guglielmo buccheri</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Solida Juve. Ma i bianconeri vanno ancora in bianco</v>
+        <v/>
       </c>
       <c r="B85" t="str">
-        <v>https://www.lastampa.it/sport/calcio/2024/09/22/news/solida_juve_ma_i_bianconeri_vanno_ancora_in_bianco-14653338/</v>
+        <v>https://www.lastampa.it/speciale/sport/atp-finals-2024/2024/11/05/news/nitto_atp_finals_2024_torino-14776040/</v>
       </c>
       <c r="C85" t="str">
-        <v>guglielmo buccheri</v>
-      </c>
-    </row>
-    <row r="86" xml:space="preserve">
-      <c r="A86" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;a href=""&gt;
-              &lt;img alt="Ricci e il Toro capolista dopo 47 anni: “Così è cambiata la nostra mentalità”" height="332" src="https://www.gedistatic.it/content/gnn/img/lastampa/2024/09/22/101722484-bfcdc995-6c4e-405f-8c57-1f534f52b1c8.jpg" width="590"/&gt;
-             &lt;/a&gt;</v>
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Speciale Atp Finals: le schede dei tennisti, la storia e i giochi de La Stampa</v>
       </c>
       <c r="B86" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/22/news/samuele_ricci_toro_nazionale_vanoli-14653935/</v>
+        <v>https://www.lastampa.it/speciale/sport/atp-finals-2024/2024/11/05/news/nitto_atp_finals_2024_torino-14776040/</v>
       </c>
       <c r="C86" t="str">
-        <v>gianluca oddenino</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Ricci e il Toro capolista dopo 47 anni: “Così è cambiata la nostra mentalità”</v>
+        <v/>
       </c>
       <c r="B87" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/22/news/samuele_ricci_toro_nazionale_vanoli-14653935/</v>
+        <v>https://www.lastampa.it/rubriche/buongiorno/2024/11/15/news/s_e_fatto_tardi-14807291/</v>
       </c>
       <c r="C87" t="str">
-        <v>gianluca oddenino</v>
+        <v>Mattia Feltri</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v/>
+        <v>S’è fatto tardi</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/22/news/compleanno_marco_tardelli_70_anni-14653466/</v>
+        <v>https://www.lastampa.it/rubriche/buongiorno/2024/11/15/news/s_e_fatto_tardi-14807291/</v>
       </c>
       <c r="C88" t="str">
-        <v>Paolo Brusorio</v>
+        <v>Mattia Feltri</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Marco Tardelli, 70 anni da urlo: “Non mi sento nonno, ho fatto quello che ho voluto. Agnelli poteva prendere Maradona”</v>
+        <v>Altrimenti</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/22/news/compleanno_marco_tardelli_70_anni-14653466/</v>
+        <v>https://www.lastampa.it/rubriche/jena/2024/11/15/news/altrimenti-14806644/</v>
       </c>
       <c r="C89" t="str">
-        <v>Paolo Brusorio</v>
+        <v>jena@lastampa.it</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v/>
+        <v>Un “accrocco” mal scritto che non poteva passare</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.lastampa.it/spettacoli/2024/09/21/news/fedez_chiara_ferragni_allucinazione_collettiva_tony_effe-14651457/</v>
+        <v>https://www.lastampa.it/rubriche/il-taccuino/2024/11/15/news/un_accrocco_mal_scritto_che_non_poteva_passare-14807301/</v>
       </c>
       <c r="C90" t="str">
-        <v>ALICE CASTAGNERI</v>
+        <v>Marcello Sorgi</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>La “finta canzone romantica” di Fedez per Chiara Ferragni: le accuse, il tentato suicidio e le liti</v>
+        <v/>
       </c>
       <c r="B91" t="str">
-        <v>https://www.lastampa.it/spettacoli/2024/09/21/news/fedez_chiara_ferragni_allucinazione_collettiva_tony_effe-14651457/</v>
+        <v>https://www.lastampa.it/salute/2024/11/12/news/fratelli_conflitti_famiglia_speciale-423610968/</v>
       </c>
       <c r="C91" t="str">
-        <v>ALICE CASTAGNERI</v>
+        <v>Cinzia Lucchelli</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v/>
+        <v>Fratelli contro fratelli: il perché dei conflitti in famiglia e come capirli</v>
       </c>
       <c r="B92" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/21/news/milano_imane_khelif_fashion_week-14651992/</v>
+        <v>https://www.lastampa.it/salute/2024/11/12/news/fratelli_conflitti_famiglia_speciale-423610968/</v>
       </c>
       <c r="C92" t="str">
-        <v>maria corbi</v>
+        <v>Cinzia Lucchelli</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Imane Khelif a Milano, tra shopping e movida aspettando la nuova docuserie</v>
+        <v/>
       </c>
       <c r="B93" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/21/news/milano_imane_khelif_fashion_week-14651992/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/diretta/guerra_israele_libano_hamas_medio_oriente_oggi-14807588/</v>
       </c>
       <c r="C93" t="str">
-        <v>maria corbi</v>
+        <v>a cura della redazione</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v/>
+        <v>Il Wsj: “Trump ha approvato una proposta per il cessate il fuoco in Libano”. Raid su Beirut</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.lastampa.it/economia/2024/09/22/news/cristina_scocchia_illy_caffe_tazzina_costo-14653714/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/diretta/guerra_israele_libano_hamas_medio_oriente_oggi-14807588/</v>
       </c>
       <c r="C94" t="str">
-        <v>claudia luise</v>
+        <v>a cura della redazione</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Cristina Scocchia: “La tazzina di caffè costerà due euro, colpa del cambiamento climatico”</v>
+        <v/>
       </c>
       <c r="B95" t="str">
-        <v>https://www.lastampa.it/economia/2024/09/22/news/cristina_scocchia_illy_caffe_tazzina_costo-14653714/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/diretta/russia_ucraina_guerra_news_oggi-14807537/</v>
       </c>
       <c r="C95" t="str">
-        <v>claudia luise</v>
+        <v>a cura della redazione</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v/>
+        <v>Trump: “Russia e Ucraina la devono smettere, lavorerò sodo”. Massiccio attacco a Odessa, i russi respinti a Kupiansk</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.lastampa.it/il-gusto/2024/09/22/news/classifica_migliori_101_ristoranti_los_angeles_gli_italiani_in_lista-423514451/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/diretta/russia_ucraina_guerra_news_oggi-14807537/</v>
       </c>
       <c r="C96" t="str">
-        <v>Не найден</v>
+        <v>a cura della redazione</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>I migliori ristoranti di Los Angeles: ecco gli italiani in classifica</v>
+        <v>Sicilia devastata dal maltempo: le aree allagate e i danni a case e strade</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.lastampa.it/il-gusto/2024/09/22/news/classifica_migliori_101_ristoranti_los_angeles_gli_italiani_in_lista-423514451/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/14/video/maltempo_sicilia_elicottero_vigili_del_fuoco-14804630/</v>
       </c>
       <c r="C97" t="str">
         <v>Не найден</v>
@@ -1476,40 +1475,40 @@
         <v/>
       </c>
       <c r="B98" t="str">
-        <v>https://www.lastampa.it/tecnologia/2024/09/05/news/ifa_2024_nuovo_honor_magic_v3_prezzo_caratteristiche-423481155/</v>
+        <v>https://www.lastampa.it/spettacoli/tv/2024/11/14/video/basta_fake_news_lilli_gruber_accusa_salvini_lui_le_dona_un_bacio-14804692/</v>
       </c>
       <c r="C98" t="str">
-        <v>Pier Luigi Pisa</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>IFA 2024, Honor svela Magic V3: il pieghevole ultrasottile</v>
+        <v>"Basta fake news": Lilli Gruber accusa Salvini, lui le dona un 'Bacio'</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.lastampa.it/tecnologia/2024/09/05/news/ifa_2024_nuovo_honor_magic_v3_prezzo_caratteristiche-423481155/</v>
+        <v>https://www.lastampa.it/spettacoli/tv/2024/11/14/video/basta_fake_news_lilli_gruber_accusa_salvini_lui_le_dona_un_bacio-14804692/</v>
       </c>
       <c r="C99" t="str">
-        <v>Pier Luigi Pisa</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Speciale IFA 2024</v>
+        <v/>
       </c>
       <c r="B100" t="str">
-        <v>https://www.lastampa.it/tecnologia/dossier/speciale-ifa-2024/?ref=LSHST-BH-P1-S1-L</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/12/video/calendario_pirelli_2025_elodie-14800326/</v>
       </c>
       <c r="C100" t="str">
-        <v>Pier Luigi Pisa</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v/>
+        <v>Il calendario Pirelli 2025 torna al nudo e sfida il patriarcato: il backstage con Elodie e le altre star</v>
       </c>
       <c r="B101" t="str">
-        <v>https://www.consigli.it/prodotti-scontati-amazon</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/12/video/calendario_pirelli_2025_elodie-14800326/</v>
       </c>
       <c r="C101" t="str">
         <v>Не найден</v>
@@ -1517,10 +1516,10 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Sconti amazon oltre il 40%: ecco la selezione delle migliori offerte</v>
+        <v/>
       </c>
       <c r="B102" t="str">
-        <v>https://www.consigli.it/prodotti-scontati-amazon</v>
+        <v>https://www.lastampa.it/politica/2024/11/13/video/fitto_inglese-14802674/</v>
       </c>
       <c r="C102" t="str">
         <v>Не найден</v>
@@ -1528,57 +1527,57 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>“La contaminazione tra le arti dell’India e dell’Europa è iniziata da una sedia”</v>
+        <v>Fitto e il discorso in inglese: la pronuncia è da bocciatura</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.lastampa.it/specchio/rubriche/domenica-con/2024/09/22/news/la_contaminazione_tra_le_arti_dellindia_e_delleuropa_e_iniziata_da_una_sedia-14652700/</v>
+        <v>https://www.lastampa.it/politica/2024/11/13/video/fitto_inglese-14802674/</v>
       </c>
       <c r="C103" t="str">
-        <v>Alain Elkann</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Come si cambia: a lezione da Kamala Harris</v>
+        <v/>
       </c>
       <c r="B104" t="str">
-        <v>https://www.lastampa.it/specchio/2024/09/22/news/come_si_cambia_a_lezione_da_kamala_harris-14652490/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/13/video/la_super_crociera_dei_delusi_quattro_anni_in_giro_per_il_mondo_per_sfuggire_allamerica_di_trump-14803523/</v>
       </c>
       <c r="C104" t="str">
-        <v>Annalisa Cuzzocrea</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v/>
+        <v>La super crociera dei delusi: quattro anni in giro per il mondo per sfuggire all'America di Trump</v>
       </c>
       <c r="B105" t="str">
-        <v>https://www.lastampa.it/specchio/2024/09/22/news/missili_si_missili_no-14651673/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/13/video/la_super_crociera_dei_delusi_quattro_anni_in_giro_per_il_mondo_per_sfuggire_allamerica_di_trump-14803523/</v>
       </c>
       <c r="C105" t="str">
-        <v>Jacopo Iacoboni</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Missili sì missili no</v>
+        <v/>
       </c>
       <c r="B106" t="str">
-        <v>https://www.lastampa.it/specchio/2024/09/22/news/missili_si_missili_no-14651673/</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/video/levante_in_anteprima_oggi_alle_ogr_torino_con_il_nuovo_libro_diario_di_parole_disegni_e_poesie-14808039/</v>
       </c>
       <c r="C106" t="str">
-        <v>Jacopo Iacoboni</v>
+        <v>TIZIANA PLATZER</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>L’amore moderno</v>
+        <v>Levante in anteprima alle Ogr Torino con il nuovo libro: Diario di parole, disegni e poesie</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.lastampa.it/specchio/relazioni/2024/09/22/news/lamore_moderno-14652432/</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/video/levante_in_anteprima_oggi_alle_ogr_torino_con_il_nuovo_libro_diario_di_parole_disegni_e_poesie-14808039/</v>
       </c>
       <c r="C107" t="str">
-        <v>Maria Corbi</v>
+        <v>TIZIANA PLATZER</v>
       </c>
     </row>
     <row r="108">
@@ -1586,76 +1585,76 @@
         <v/>
       </c>
       <c r="B108" t="str">
-        <v>https://www.lastampa.it/specchio/temi/2024/09/22/news/personale_a_zero_e_uno_stato_distratto_fallire_e_doloroso-14651635/</v>
+        <v>https://www.consigli.it/migliori-robot-aspirapolvere-lavapavimenti</v>
       </c>
       <c r="C108" t="str">
-        <v>Flavia Amabile</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Assistenti sociali cercansi, personale a zero e uno Stato distratto: pagano gli adolescenti</v>
+        <v>Robot aspirapolvere e lavapavimenti: ecco i migliori 5 del 2024</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.lastampa.it/specchio/temi/2024/09/22/news/personale_a_zero_e_uno_stato_distratto_fallire_e_doloroso-14651635/</v>
+        <v>https://www.consigli.it/migliori-robot-aspirapolvere-lavapavimenti</v>
       </c>
       <c r="C109" t="str">
-        <v>Flavia Amabile</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>La fine di Michelle uccisa per 30 euro “Mi aveva offeso”</v>
+        <v>Le decisioni del Governo e tutte le notizie dall'Italia e dall'estero. Abbonati al sito de La Stampa a 1€ al mese per 3 mesi</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.lastampa.it/specchio/i-grandi-gialli/2024/09/22/news/la_fine_di_michelle_uccisa_per_30_euro_mi_aveva_offeso-14651756/</v>
+        <v>https://shop.lastampa.it/new-auth?purchase=/offers/LaStampa_Sito_NL_3M1_New/LaStampa_Sito_Mese_3M1_New&amp;intme=vaschetta&amp;intso=ATP_VASCHP&amp;intca=ls_sito_mese_vaschp&amp;intco=ls_3m1sit_n</v>
       </c>
       <c r="C110" t="str">
-        <v>Gianluigi Nuzzi</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>La sindrome dello zio matto</v>
+        <v>Le notizie via mail, da Stampa Sera a Sotto la Mole: ecco come ricevere le nostre newsletter</v>
       </c>
       <c r="B111" t="str">
-        <v>https://www.lastampa.it/specchio/2024/09/22/news/la_sindrome_dello_zio_matto-14652545/</v>
+        <v>https://www.lastampa.it/cultura/2022/08/24/news/le_notizie_via_mail_da_stampa_sera_a_sotto_la_mole_ecco_come_ricevere_le_nostre_newsletter-7080883/</v>
       </c>
       <c r="C111" t="str">
-        <v>Maria Laura Rodotà</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>I social network hanno ucciso il pettegolezzo</v>
+        <v/>
       </c>
       <c r="B112" t="str">
-        <v>https://www.lastampa.it/specchio/temi/2024/09/15/news/i_social_network_hanno_ucciso_il_pettegolezzo-14633036/</v>
+        <v>https://www.lastampa.it/politica/2024/11/15/news/autonomia_differenziata_bocciata_perche-14807951/</v>
       </c>
       <c r="C112" t="str">
-        <v>Assia Neumann Dayan</v>
+        <v>Grazia Longo</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v/>
+        <v>Giani: “Confermati tutti i nostri dubbi. La legge sull’autonomia minava l’unità nazionale”</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/21/news/f1_gp_singapore_pole_norris_ferrari_da_dimenticare_leclerc_9_sainz_va_a_sbattere-14652399/</v>
+        <v>https://www.lastampa.it/politica/2024/11/15/news/autonomia_differenziata_bocciata_perche-14807951/</v>
       </c>
       <c r="C113" t="str">
-        <v>JACOPO D'ORSI</v>
+        <v>Grazia Longo</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Gp Singapore, Ferrari da dimenticare: Leclerc 9°, Sainz va a sbattere. Charles si sfoga: “Gomme troppo fredde, non si può fare un errore così”</v>
+        <v>Il governatore toscano: «Il principio di solidarietà ed equità va rispettato»</v>
       </c>
       <c r="B114" t="str">
-        <v>https://www.lastampa.it/sport/2024/09/21/news/f1_gp_singapore_pole_norris_ferrari_da_dimenticare_leclerc_9_sainz_va_a_sbattere-14652399/</v>
+        <v>https://www.lastampa.it/politica/2024/11/15/news/autonomia_differenziata_bocciata_perche-14807951/</v>
       </c>
       <c r="C114" t="str">
-        <v>JACOPO D'ORSI</v>
+        <v>Grazia Longo</v>
       </c>
     </row>
     <row r="115">
@@ -1663,79 +1662,76 @@
         <v/>
       </c>
       <c r="B115" t="str">
-        <v>https://www.lastampa.it/sport/motori/2024/09/21/news/motogp_emilia_romagna_bagnaia_pole-14651719/</v>
+        <v>https://www.lastampa.it/politica/2024/11/14/news/autonomia_differenziata-14807186/</v>
       </c>
       <c r="C115" t="str">
-        <v>matteo aglio</v>
+        <v>ALFONSO CELOTTO</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>MotoGp a Misano, Bagnaia vince la gara sprint</v>
+        <v>Autonomia differenziata, ecco i 7 punti contestati. E adesso cosa succede?</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.lastampa.it/sport/motori/2024/09/21/news/motogp_emilia_romagna_bagnaia_pole-14651719/</v>
+        <v>https://www.lastampa.it/politica/2024/11/14/news/autonomia_differenziata-14807186/</v>
       </c>
       <c r="C116" t="str">
-        <v>matteo aglio</v>
-      </c>
-    </row>
-    <row r="117" xml:space="preserve">
-      <c r="A117" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;a href=""&gt;
-              &lt;img alt="Ganna, pronto per la  crono ai Mondiali: “Mi sono rimesso in gioco. Evenepoel favorito”
-" height="450" src="https://www.gedistatic.it/content/gnn/img/lastampa/2024/09/21/193843506-7d84a545-4904-490a-a7f5-e8263d6b9c03.jpg" width="800"/&gt;
-             &lt;/a&gt;</v>
+        <v>ALFONSO CELOTTO</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Il cammino sarà ancora lungo perché la legge Calderoli è stata dichiarata incostituzionale in più punti</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.lastampa.it/sport/ciclismo/2024/09/21/news/ganna_pronto_per_la_crono_ai_mondiali_mi_sono_rimesso_in_gioco_evenepoel_favorito-14653033/</v>
+        <v>https://www.lastampa.it/politica/2024/11/14/news/autonomia_differenziata-14807186/</v>
       </c>
       <c r="C117" t="str">
-        <v>Daniela Cotto</v>
+        <v>ALFONSO CELOTTO</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ganna, pronto per la  crono ai Mondiali: “Mi sono rimesso in gioco. Evenepoel favorito”</v>
+        <v>Autonomia differenziata, la Consulta accoglie parzialmente il ricorso: “Illegittime alcune disposizioni”</v>
       </c>
       <c r="B118" t="str">
-        <v>https://www.lastampa.it/sport/ciclismo/2024/09/21/news/ganna_pronto_per_la_crono_ai_mondiali_mi_sono_rimesso_in_gioco_evenepoel_favorito-14653033/</v>
+        <v>https://www.lastampa.it/politica/2024/11/14/news/autonomia_differenziata_consulta_accoglie_ricorso-14806714/</v>
       </c>
       <c r="C118" t="str">
-        <v>Daniela Cotto</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Supercoppa volley maschile, Perugia e Trento volano in finale</v>
+        <v>«Spetta al Parlamento colmare i vuoti segnalati»</v>
       </c>
       <c r="B119" t="str">
-        <v>https://www.lastampa.it/sport/volley/2024/09/21/news/supercoppa_volley_maschile_perugia_e_trento_volano_in_finale_a_firenze-14653435/</v>
+        <v>https://www.lastampa.it/politica/2024/11/14/news/autonomia_differenziata_consulta_accoglie_ricorso-14806714/</v>
       </c>
       <c r="C119" t="str">
-        <v>ANGELO DI MARINO</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v/>
+        <v>Tajani: “Le parole di Musk non mi appartengono, bene Mattarella”</v>
       </c>
       <c r="B120" t="str">
-        <v>https://www.lastampa.it/spettacoli/2024/09/22/news/margherita_buy_regista_ridere_paure-14653196/</v>
+        <v>https://www.lastampa.it/politica/2024/11/14/news/tajani_musk_mattarella-14804973/</v>
       </c>
       <c r="C120" t="str">
-        <v>Claudia Catalli</v>
+        <v>Francesco Olivo</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Margherita Buy: “Sono diventata regista per ridere delle mie paure”</v>
+        <v>Il ministro degli Esteri: «Siamo capaci di scegliere il nostro destino». Stroppa getta acqua sul fuoco: «Elon parlava da privato cittadino»</v>
       </c>
       <c r="B121" t="str">
-        <v>https://www.lastampa.it/spettacoli/2024/09/22/news/margherita_buy_regista_ridere_paure-14653196/</v>
+        <v>https://www.lastampa.it/politica/2024/11/14/news/tajani_musk_mattarella-14804973/</v>
       </c>
       <c r="C121" t="str">
-        <v>Claudia Catalli</v>
+        <v>Francesco Olivo</v>
       </c>
     </row>
     <row r="122">
@@ -1743,190 +1739,183 @@
         <v/>
       </c>
       <c r="B122" t="str">
-        <v>https://www.lastampa.it/spettacoli/2024/09/22/news/the_penguin_colin_farrell-14653750/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/germania_democrazia_stranieri-14808308/</v>
       </c>
       <c r="C122" t="str">
-        <v>valentina ariete</v>
+        <v>uski audino</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>“The Penguin” di Colin Farrell, più Sopranos che Batman</v>
+        <v>Germania, metà dei tedeschi non crede più nella democrazia</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.lastampa.it/spettacoli/2024/09/22/news/the_penguin_colin_farrell-14653750/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/germania_democrazia_stranieri-14808308/</v>
       </c>
       <c r="C123" t="str">
-        <v>valentina ariete</v>
-      </c>
-    </row>
-    <row r="124" xml:space="preserve">
-      <c r="A124" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;a href=""&gt;
-              &lt;img alt="
-Fernando Aramburu: “Non siamo alberi con radici eterne, tutti possiamo trovare nuove identità” 
-" height="450" src="https://www.gedistatic.it/content/gnn/img/lastampa/2024/09/21/225154120-11c1ba8e-e405-4539-b41b-16ab651f0684.jpg" width="800"/&gt;
-             &lt;/a&gt;</v>
+        <v>uski audino</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Studio dell’università di Lipsia rivela anche una intolleranza verso gli stranieri</v>
       </c>
       <c r="B124" t="str">
-        <v>https://www.lastampa.it/cultura/2024/09/22/news/fernando_aramburu_alberi_radici_eterne_identita-14653384/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/germania_democrazia_stranieri-14808308/</v>
       </c>
       <c r="C124" t="str">
-        <v>giulio d’antona</v>
+        <v>uski audino</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Fernando Aramburu: “Non siamo alberi con radici eterne, tutti possiamo trovare nuove identità”</v>
+        <v/>
       </c>
       <c r="B125" t="str">
-        <v>https://www.lastampa.it/cultura/2024/09/22/news/fernando_aramburu_alberi_radici_eterne_identita-14653384/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/musk_lavoratori_qi_alto-14808286/</v>
       </c>
       <c r="C125" t="str">
-        <v>giulio d’antona</v>
+        <v>Nadia Ferrigo</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Quelle quattro donne bibliche vittime di odio, violenza e oblio</v>
+        <v>Elon Musk cerca lavoratori con “QI super alto”: “Niente paga e 80 ore a settimana per tagliare i costi del governo”</v>
       </c>
       <c r="B126" t="str">
-        <v>https://www.lastampa.it/cultura/2024/09/22/news/quattro_donne_bibliche_vittime_odio_violenza_oblio-14653342/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/musk_lavoratori_qi_alto-14808286/</v>
       </c>
       <c r="C126" t="str">
-        <v>rosella postorino</v>
+        <v>Nadia Ferrigo</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v/>
+        <v>Per candidarsi bisogna mandare il curriculum via X, il social network di proprietà del miliardario braccio destro di Trump</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/islanda_orso_polare_ucciso_polizia-423514224/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/musk_lavoratori_qi_alto-14808286/</v>
       </c>
       <c r="C127" t="str">
-        <v>Chiara Grasso</v>
+        <v>Nadia Ferrigo</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Islanda, un raro orso polare arriva dalla Groenlandia su una lastra di ghiaccio: la polizia lo uccide</v>
+        <v>America a destra, prova di forza di Trump</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/islanda_orso_polare_ucciso_polizia-423514224/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/america_a_destra_prova_di_forza_di_trump-14807397/</v>
       </c>
       <c r="C128" t="str">
-        <v>Chiara Grasso</v>
+        <v>DAL NOSTRO CORRSPONDENTE ALBERTO SIMONI</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v/>
+        <v>La scelta alla giustizia del suprematista Gaetz scatena anche i repubblicani. il no vax Kennedy alla salute</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/21/news/pescara_tar_daniele_de_martino_mafia-14652299/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/15/news/america_a_destra_prova_di_forza_di_trump-14807397/</v>
       </c>
       <c r="C129" t="str">
-        <v>saverio occhiuto</v>
+        <v>DAL NOSTRO CORRSPONDENTE ALBERTO SIMONI</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Pescara, fermato dal Tar il cantante neomelodico che inneggia alla mafia</v>
+        <v>La scelta di Trump: Kennedy il no-vax ministro della Sanità</v>
       </c>
       <c r="B130" t="str">
-        <v>https://www.lastampa.it/cronaca/2024/09/21/news/pescara_tar_daniele_de_martino_mafia-14652299/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/14/news/la_scelta_di_trump_kenney_il_no-vax_ministro_della_sanita-14807379/</v>
       </c>
       <c r="C130" t="str">
-        <v>saverio occhiuto</v>
-      </c>
-    </row>
-    <row r="131" xml:space="preserve">
-      <c r="A131" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;a href=""&gt;
-              &lt;img alt="Sulla scia del profumo: a Firenze nasce la biblioteca olfattiva
-" height="450" src="https://www.gedistatic.it/content/gnn/img/lastampa/2024/09/21/113329144-38c760d5-1202-4d8d-8bd8-83e9397a1243.jpg" width="800"/&gt;
-             &lt;/a&gt;</v>
+        <v>Alberto Simoni</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Nominato il figlio di Bobby: avrà un ruolo cruciale nell’amministrazione</v>
       </c>
       <c r="B131" t="str">
-        <v>https://www.lastampa.it/esercizi-di-stile/2024/09/21/news/profumo_firenze_biblioteca_olfattiva_cavalli_siloni-14651671/</v>
+        <v>https://www.lastampa.it/esteri/2024/11/14/news/la_scelta_di_trump_kenney_il_no-vax_ministro_della_sanita-14807379/</v>
       </c>
       <c r="C131" t="str">
-        <v>elena del santo</v>
+        <v>Alberto Simoni</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Sulla scia del profumo: a Firenze nasce la biblioteca olfattiva</v>
+        <v/>
       </c>
       <c r="B132" t="str">
-        <v>https://www.lastampa.it/esercizi-di-stile/2024/09/21/news/profumo_firenze_biblioteca_olfattiva_cavalli_siloni-14651671/</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/landini_dal_governo_solo_mance_e_bugie-14807277/</v>
       </c>
       <c r="C132" t="str">
-        <v>elena del santo</v>
+        <v>Paolo Baroni</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>È un chupacabra o un alieno? Il mistero della creatura avvistata in Texas a cui nessuno sa dare una spiegazione</v>
+        <v>Landini: “Dal governo solo mance e bugie”</v>
       </c>
       <c r="B133" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/21/news/chupacabra_alieno_skinwalker_creatura_misteriosa_avvistamento_texas-423512805/</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/landini_dal_governo_solo_mance_e_bugie-14807277/</v>
       </c>
       <c r="C133" t="str">
-        <v>Noemi Penna</v>
+        <v>Paolo Baroni</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Le decisioni del Governo e tutte le notizie dall'Italia e dall'estero. Abbonati al sito de La Stampa a 1€ al mese per 3 mesi</v>
+        <v>Il leader Cgil: gli italiani devono reagire contro questa manovra ingiusta. «Condivido la proposta di Gribaudo sulla legge Griseri per salvare i rider»</v>
       </c>
       <c r="B134" t="str">
-        <v>https://shop.lastampa.it/new-auth?purchase=/offers/LaStampa_Sito_NL_3M1_New/LaStampa_Sito_Mese_3M1_New&amp;intme=vaschetta&amp;intso=ATP_VASCHP&amp;intca=ls_sito_mese_vaschp&amp;intco=ls_3m1sit_n</v>
+        <v>https://www.lastampa.it/economia/2024/11/15/news/landini_dal_governo_solo_mance_e_bugie-14807277/</v>
       </c>
       <c r="C134" t="str">
-        <v>Не найден</v>
+        <v>Paolo Baroni</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Le notizie via mail, da Stampa Sera a Sotto la Mole: ecco come ricevere le nostre newsletter</v>
+        <v/>
       </c>
       <c r="B135" t="str">
-        <v>https://www.lastampa.it/cultura/2022/08/24/news/le_notizie_via_mail_da_stampa_sera_a_sotto_la_mole_ecco_come_ricevere_le_nostre_newsletter-7080883/</v>
+        <v>https://www.lastampa.it/economia/2024/11/14/news/mps_castagna_confermiamo_strategia_stand_alone-14807201/</v>
       </c>
       <c r="C135" t="str">
-        <v>Не найден</v>
+        <v>Claudia Luise</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v/>
+        <v>Mps, Castagna ai dipendenti: “Vogliamo crescere ancora. Ma confermiamo la nostra strategia stand alone”</v>
       </c>
       <c r="B136" t="str">
-        <v>https://www.lastampa.it/green-and-blue/dossier/percorsi-sostenibili-la-via-del-riciclo/</v>
+        <v>https://www.lastampa.it/economia/2024/11/14/news/mps_castagna_confermiamo_strategia_stand_alone-14807201/</v>
       </c>
       <c r="C136" t="str">
-        <v>Не найден</v>
+        <v>Claudia Luise</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Percorsi sostenibili, la via del riciclo</v>
+        <v>L’amministratore delegato di Banco Bpm: “L’opa su Anima e l’acquisto di una quota della banca di Siena sono passaggi essenziali”</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.lastampa.it/green-and-blue/dossier/percorsi-sostenibili-la-via-del-riciclo/</v>
+        <v>https://www.lastampa.it/economia/2024/11/14/news/mps_castagna_confermiamo_strategia_stand_alone-14807201/</v>
       </c>
       <c r="C137" t="str">
-        <v>Не найден</v>
+        <v>Claudia Luise</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v/>
+        <v>Venezia, chiude il Fondaco dei Tedeschi: per il polo del lusso un rosso di 100 milioni e 200 licenziamenti in arrivo</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/09/05/news/pelle_trasparente_colorante_tartrazina_science-423480783/</v>
+        <v>https://www.lastampa.it/economia/2024/11/14/news/fondaco_dei_tedeschi_venezia_chiude-14806789/</v>
       </c>
       <c r="C138" t="str">
         <v>Не найден</v>
@@ -1934,10 +1923,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>La pelle diventa trasparente. Con un colorante alimentare</v>
+        <v>La crisi del palazzo del lusso creato nel tredicesimo secolo, la rabbia del Comune: «Nemmeno avvisati»</v>
       </c>
       <c r="B139" t="str">
-        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/09/05/news/pelle_trasparente_colorante_tartrazina_science-423480783/</v>
+        <v>https://www.lastampa.it/economia/2024/11/14/news/fondaco_dei_tedeschi_venezia_chiude-14806789/</v>
       </c>
       <c r="C139" t="str">
         <v>Не найден</v>
@@ -1945,10 +1934,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v/>
+        <v>Dall’Ue maxi-multa a Meta: deve pagare 797,7 milioni per aver violato le regole di concorrenza</v>
       </c>
       <c r="B140" t="str">
-        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/09/06/news/allergie_alimentari_bambini_intolleranze_pediatria_alimentazione-423483111/</v>
+        <v>https://www.lastampa.it/economia/2024/11/14/news/meta_multa_marketplace_ue-14806208/</v>
       </c>
       <c r="C140" t="str">
         <v>Не найден</v>
@@ -1956,10 +1945,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Allergie alimentari nei bambini: trend in crescita, soprattutto sotto i 3 anni</v>
+        <v>E’ stato rilevato che la società ha abusato delle sue posizioni dominanti in violazione dell'articolo 102 del Trattato sul funzionamento dell'Unione europea</v>
       </c>
       <c r="B141" t="str">
-        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/09/06/news/allergie_alimentari_bambini_intolleranze_pediatria_alimentazione-423483111/</v>
+        <v>https://www.lastampa.it/economia/2024/11/14/news/meta_multa_marketplace_ue-14806208/</v>
       </c>
       <c r="C141" t="str">
         <v>Не найден</v>
@@ -1970,40 +1959,40 @@
         <v/>
       </c>
       <c r="B142" t="str">
-        <v>https://www.lastampa.it/salute/dossier/sportello-cuore/2024/09/06/news/ipertensione_resistente_pillola_quattro_in_uno_aiuta_a_seguire_cura-423480465/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/giubbotti_antiproiettile_carabinieri-14808189/</v>
       </c>
       <c r="C142" t="str">
-        <v>Не найден</v>
+        <v>Francesco Grignetti</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Ipertensione resistente, la pillola “quattro in uno” aiuta ad abbassare la pressione e a seguire la cura</v>
+        <v>I giubbotti antiproiettile del 2005 in dotazione ai carabinieri funzionano ancora?</v>
       </c>
       <c r="B143" t="str">
-        <v>https://www.lastampa.it/salute/dossier/sportello-cuore/2024/09/06/news/ipertensione_resistente_pillola_quattro_in_uno_aiuta_a_seguire_cura-423480465/</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/giubbotti_antiproiettile_carabinieri-14808189/</v>
       </c>
       <c r="C143" t="str">
-        <v>Не найден</v>
+        <v>Francesco Grignetti</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v/>
+        <v>La risposta del Comando generale: sono come le armi e c’è il segreto militare</v>
       </c>
       <c r="B144" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp?testata=lastampa</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/giubbotti_antiproiettile_carabinieri-14808189/</v>
       </c>
       <c r="C144" t="str">
-        <v>Не найден</v>
+        <v>Francesco Grignetti</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>La cucina della Stampa</v>
+        <v/>
       </c>
       <c r="B145" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp?testata=lastampa</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/incidente_lavoro_pozzuolo_martesana_operaio_morto-14808163/</v>
       </c>
       <c r="C145" t="str">
         <v>Не найден</v>
@@ -2011,10 +2000,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v/>
+        <v>Precipita dal tetto di un capannone mentre lavorava, muore 54enne nel milanese</v>
       </c>
       <c r="B146" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/incidente_lavoro_pozzuolo_martesana_operaio_morto-14808163/</v>
       </c>
       <c r="C146" t="str">
         <v>Не найден</v>
@@ -2022,10 +2011,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Metternich</v>
+        <v>Sul posto sono intervenuti personale Areu, un'automedica, un'ambulanza, le forze dell'ordine e Ats</v>
       </c>
       <c r="B147" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/incidente_lavoro_pozzuolo_martesana_operaio_morto-14808163/</v>
       </c>
       <c r="C147" t="str">
         <v>Не найден</v>
@@ -2033,46 +2022,46 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v/>
+        <v>A Chiomonte 900 abitanti e un solo neonato: “Ma con la scuola sfidiamo il futuro”</v>
       </c>
       <c r="B148" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/chiomonte_abitanti_neonati-14807986/</v>
       </c>
       <c r="C148" t="str">
-        <v>Не найден</v>
+        <v>dal nostro inviato Niccolò Zancan</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Pillole</v>
+        <v>Nel paese della Val di Susa popolazione più anziana e negozi in vendita: «Puntiamo sui servizi alle famiglie, è l’unico modo per farle restare»</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/chiomonte_abitanti_neonati-14807986/</v>
       </c>
       <c r="C149" t="str">
-        <v>Не найден</v>
+        <v>dal nostro inviato Niccolò Zancan</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v/>
+        <v>Morte di Agata Spada, Filippo Anelli: “Basta con i chirurghi estetici su TikTok”</v>
       </c>
       <c r="B150" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/filippo_anelli_basta_con_i_chirurghi_estetici_su_tiktok-14807209/</v>
       </c>
       <c r="C150" t="str">
-        <v>Не найден</v>
+        <v>Paolo Russo</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Sotto la mole</v>
+        <v>Il presidente dell’Ordine nazionale dei medici sul caso della ragazza morta dopo l’intervento al naso: «Non siamo imprese balneari»</v>
       </c>
       <c r="B151" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/cronaca/2024/11/15/news/filippo_anelli_basta_con_i_chirurghi_estetici_su_tiktok-14807209/</v>
       </c>
       <c r="C151" t="str">
-        <v>Не найден</v>
+        <v>Paolo Russo</v>
       </c>
     </row>
     <row r="152">
@@ -2080,142 +2069,142 @@
         <v/>
       </c>
       <c r="B152" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/tifosi_toro_cairo_striscione_piazza_san_carlo-14808036/</v>
       </c>
       <c r="C152" t="str">
-        <v>Не найден</v>
+        <v>Gianluca Oddenino</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>La Zampa</v>
+        <v>Striscioni in piazza San Carlo e volantini a Masio: dilaga la protesta dei granata contro Cairo</v>
       </c>
       <c r="B153" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/tifosi_toro_cairo_striscione_piazza_san_carlo-14808036/</v>
       </c>
       <c r="C153" t="str">
-        <v>Не найден</v>
+        <v>Gianluca Oddenino</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v/>
+        <v>I tifosi del Toro chiedono la cessione del club e sono pronti a nuove manifestazioni prima della sfida contro il Monza</v>
       </c>
       <c r="B154" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/torino/2024/11/15/news/tifosi_toro_cairo_striscione_piazza_san_carlo-14808036/</v>
       </c>
       <c r="C154" t="str">
-        <v>Не найден</v>
+        <v>Gianluca Oddenino</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Tuttolibri</v>
+        <v/>
       </c>
       <c r="B155" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/sport/2024/11/14/news/gol_highlights_belgio_italia-14807420/</v>
       </c>
       <c r="C155" t="str">
-        <v>Не найден</v>
+        <v>Guglielmo Buccheri</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v/>
+        <v>Basta un gol di Tonali per battere il Belgio: l’Italia si qualifica ai quarti di Nations League</v>
       </c>
       <c r="B156" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/sport/2024/11/14/news/gol_highlights_belgio_italia-14807420/</v>
       </c>
       <c r="C156" t="str">
-        <v>Не найден</v>
+        <v>Guglielmo Buccheri</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Viaggiando</v>
+        <v>L’Italia vince in Belgio grazie al gol di Tonali. Raggiunti i quarti di finale e ipotecato il 1° posto nel girone di Nations. Domenica c’è la Francia</v>
       </c>
       <c r="B157" t="str">
-        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://www.lastampa.it/sport/2024/11/14/news/gol_highlights_belgio_italia-14807420/</v>
       </c>
       <c r="C157" t="str">
-        <v>Не найден</v>
+        <v>Guglielmo Buccheri</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>“Voglio gli occhi blu”: come cambiare colore (e con quali rischi)</v>
+        <v>Toro, striscione in piazza San Carlo: “Cairo, basta!”</v>
       </c>
       <c r="B158" t="str">
-        <v>https://www.lastampa.it/salute/2024/07/12/news/cambiare_colore_occhi_rischi-423391028/</v>
+        <v>https://www.lastampa.it/sport/calcio/2024/11/14/news/striscione_cairo_piazza_san_carlo-14806392/</v>
       </c>
       <c r="C158" t="str">
-        <v>Irma d'Aria</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>E PizzAut invade le strade: 100 food truck per arrivare in tutta Italia</v>
+        <v>L’iniziativa di un cittadino ricorda lo stato di agitazione dei tifosi granata</v>
       </c>
       <c r="B159" t="str">
-        <v>https://www.lastampa.it/il-gusto/2024/07/12/news/pizzaut_100_food_truck_per_arrivare_in_tutta_italia-423390995/</v>
+        <v>https://www.lastampa.it/sport/calcio/2024/11/14/news/striscione_cairo_piazza_san_carlo-14806392/</v>
       </c>
       <c r="C159" t="str">
-        <v>Jacopo Fontaneto</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>l ritorno del wrap dress: perché dobbiamo sceglierlo</v>
+        <v>Italia, Spalletti: “Stasera vediamo chi vincerà la sfida dell’audience tra noi e Sinner”</v>
       </c>
       <c r="B160" t="str">
-        <v>https://www.lastampa.it/moda-e-beauty/2024/07/12/news/wrap_dress_come_si_scelgono_e_come_si_portano_estate_2024_diane_von_furstenberg-423362108/</v>
+        <v>https://www.lastampa.it/sport/calcio/2024/11/14/news/spalletti_belgio_italia-14806351/</v>
       </c>
       <c r="C160" t="str">
-        <v>Donatella Genta</v>
+        <v>gugliemo buccheri</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Le spunte blu a pagamento “ingannano gli utenti”: le accuse della UE a Twitter</v>
+        <v>Il ct: «Se Jannik avesse fatto il calciatore avrebbe vinto il pallone d’oro»</v>
       </c>
       <c r="B161" t="str">
-        <v>https://www.lastampa.it/tecnologia/2024/07/12/news/twitter_spunta_blu_ingannevole_accuse_unione_europea_elon_musk-423392410/</v>
+        <v>https://www.lastampa.it/sport/calcio/2024/11/14/news/spalletti_belgio_italia-14806351/</v>
       </c>
       <c r="C161" t="str">
-        <v>Emanuele Capone</v>
+        <v>gugliemo buccheri</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>“Con il cambiamento climatico il caffè è in pericolo. Ma abbiamo gli strumenti per un futuro sostenibile”</v>
+        <v/>
       </c>
       <c r="B162" t="str">
-        <v>https://www.lastampa.it/green-and-blue/2024/07/13/news/caffe_sostenibilita_agricoltura-423390916/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/linkin_park_milano_2025_idays-14806851/</v>
       </c>
       <c r="C162" t="str">
-        <v>Nicolas Lozito</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v/>
+        <v>I Linkin Park in Italia nel 2025: suoneranno il 24 giugno agli I-Days a Milano</v>
       </c>
       <c r="B163" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/cani_anziani_lasciati_legati_cancello_rifugio_lettera-423514255/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/linkin_park_milano_2025_idays-14806851/</v>
       </c>
       <c r="C163" t="str">
-        <v>Isabella Amato</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Trovano due cani anziani legati al cancello del rifugio con una lettera che spiega un disperato gesto d’amore (Video)</v>
+        <v>Il tanto atteso ritorno della band è iniziato lo scorso 5 settembre con la pubblicazione del singolo “The Emptiness Machine”</v>
       </c>
       <c r="B164" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/cani_anziani_lasciati_legati_cancello_rifugio_lettera-423514255/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/linkin_park_milano_2025_idays-14806851/</v>
       </c>
       <c r="C164" t="str">
-        <v>Isabella Amato</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="165">
@@ -2223,87 +2212,87 @@
         <v/>
       </c>
       <c r="B165" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/cane_sopravvive_tifone_yagi_vietnam_piange_emozione-423514234/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/the_night_agent_serie_netflix-14804914/</v>
       </c>
       <c r="C165" t="str">
-        <v>Noemi Penna</v>
+        <v>Daniela Lanni</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Il cane si perde durante il tifone Yagi: quando la sua famiglia lo ritrova, “piange” anche lui dalla gioia (Video)</v>
+        <v>“The Night Agent”, torna su Netflix la serie tv dei record: ecco le date e le novità della seconda stagione</v>
       </c>
       <c r="B166" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/cane_sopravvive_tifone_yagi_vietnam_piange_emozione-423514234/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/the_night_agent_serie_netflix-14804914/</v>
       </c>
       <c r="C166" t="str">
-        <v>Noemi Penna</v>
+        <v>Daniela Lanni</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v/>
+        <v>La serie tv creata da Shawn Ryan è tratta dall’omonimo romanzo di Matthew Quirk. La prima stagione è stata la più vista nel 2023 sulla piattaforma streaming</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/gatto_abbandono_discarica_adozione-423514269/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/the_night_agent_serie_netflix-14804914/</v>
       </c>
       <c r="C167" t="str">
-        <v>Noemi Penna</v>
+        <v>Daniela Lanni</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Sentono strani rumori in una discarica, non erano pronti per chi sarebbe corso verso di loro (Video)</v>
+        <v>&lt;a href=""&gt;&lt;img src="https://www.gedistatic.it/content/gnn/img/lastampa/2024/11/14/082815106-6666f216-ac8d-4881-bac4-ce5e0f3b2a8e.jpg" width="" height="" alt="Madonna torna single, è finita la relazione con il calciatore 28enne Akeem Morris"&gt;&lt;/a&gt;</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/gatto_abbandono_discarica_adozione-423514269/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/madonna_fidanzato_akeem_morris-14804679/</v>
       </c>
       <c r="C168" t="str">
-        <v>Noemi Penna</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v/>
+        <v>Madonna torna single, è finita la relazione con il calciatore 28enne Akeem Morris</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/21/news/cane_maltrattato_paura_armadio_adozione_trasformazione-423513511/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/madonna_fidanzato_akeem_morris-14804679/</v>
       </c>
       <c r="C169" t="str">
-        <v>Aurora Iberti</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Il cane maltrattato si è nascosto per quattro giorni in un armadio per la paura, ma ora la vita di Lennie è cambiata (Video)</v>
+        <v>La popstar ha interrotto la relazione a fine ottobre. La differenza di età all’origine della crisi</v>
       </c>
       <c r="B170" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/21/news/cane_maltrattato_paura_armadio_adozione_trasformazione-423513511/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/madonna_fidanzato_akeem_morris-14804679/</v>
       </c>
       <c r="C170" t="str">
-        <v>Aurora Iberti</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v/>
+        <v>Serena Dandini, il dialogo con la figlia: “Essere serie senza prendersi sul serio. In questo ci assomigliamo Adele ed io”</v>
       </c>
       <c r="B171" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/19/news/ciclisti_salvano_cane_randagio-423508552/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/serena_dandini_il_dialogo_con_la_figlia_essere_serie_senza_prendersi_sul_serio_in_questo_ci_assomigliamo_adele_ed_io-14804566/</v>
       </c>
       <c r="C171" t="str">
-        <v>Aurora Iberti</v>
+        <v>Adriana Marmiroli</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Tre ciclisti si fermano per soccorrere un cane randagio, ma un biglietto nel collare svela il passato di Chase</v>
+        <v>L’autrice torna con «L’eredità delle donne», l’intelligenza invisibile femminile del passato a confronto con il dinamismo di oggi</v>
       </c>
       <c r="B172" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/19/news/ciclisti_salvano_cane_randagio-423508552/</v>
+        <v>https://www.lastampa.it/spettacoli/2024/11/14/news/serena_dandini_il_dialogo_con_la_figlia_essere_serie_senza_prendersi_sul_serio_in_questo_ci_assomigliamo_adele_ed_io-14804566/</v>
       </c>
       <c r="C172" t="str">
-        <v>Aurora Iberti</v>
+        <v>Adriana Marmiroli</v>
       </c>
     </row>
     <row r="173">
@@ -2311,92 +2300,3491 @@
         <v/>
       </c>
       <c r="B173" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/cani_migliori_amici_anzianita-423514333/</v>
+        <v>https://www.lastampa.it/cultura/2024/11/14/news/la_carica_dei_103_sindaci_per_sostenere_pompei_come_capitale_della_cultura_2027-14806629/</v>
       </c>
       <c r="C173" t="str">
-        <v>Isabella Amato</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Il cane Toby si rende conto che suo fratello Huang'er non ha più molto da vivere e fa la cosa più dolce che si possa vedere (Video)</v>
+        <v>La carica dei 103 sindaci per sostenere Pompei come Capitale della Cultura 2027</v>
       </c>
       <c r="B174" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/cani_migliori_amici_anzianita-423514333/</v>
+        <v>https://www.lastampa.it/cultura/2024/11/14/news/la_carica_dei_103_sindaci_per_sostenere_pompei_come_capitale_della_cultura_2027-14806629/</v>
       </c>
       <c r="C174" t="str">
-        <v>Isabella Amato</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v/>
+        <v>Il centro vesuviano presenta la candidatura con un dossier che prevede un brand territoriale. Obiettivo turismo con l’inclusione della Costiera sorrentina e della Costa d’Amalfi. Il sindaco Lo Sapio: «Vogliamo essere modello per l'Italia, possiamo farcela»</v>
       </c>
       <c r="B175" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/gatto_trucco_bellezza_unica-423514353/</v>
+        <v>https://www.lastampa.it/cultura/2024/11/14/news/la_carica_dei_103_sindaci_per_sostenere_pompei_come_capitale_della_cultura_2027-14806629/</v>
       </c>
       <c r="C175" t="str">
-        <v>Noemi Penna</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>La bellezza invidiabile della gatta Bertie: “Sembra le abbiano fatto trucco e parrucco”</v>
+        <v/>
       </c>
       <c r="B176" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/22/news/gatto_trucco_bellezza_unica-423514353/</v>
+        <v>https://www.lastampa.it/cultura/2024/11/14/news/new_york_moma_paola_antonelli-14804326/</v>
       </c>
       <c r="C176" t="str">
-        <v>Noemi Penna</v>
+        <v>giulia zonca</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v/>
+        <v>Paola Antonelli: “Sono allergica all’etichetta Made in Italy. Troppi mostri sacri e poco spazio ai giovani”</v>
       </c>
       <c r="B177" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/21/news/cane_trovato_cuccioli-423512763/</v>
+        <v>https://www.lastampa.it/cultura/2024/11/14/news/new_york_moma_paola_antonelli-14804326/</v>
       </c>
       <c r="C177" t="str">
-        <v>Isabella Amato</v>
+        <v>giulia zonca</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Carol, il cane trovato nascosto dietro a una siepe che proteggeva un dolce segreto</v>
+        <v>La curatrice del Dipartimento di architettura, design e moda del Moma: «Il contributo privato fa bene ai musei»</v>
       </c>
       <c r="B178" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/21/news/cane_trovato_cuccioli-423512763/</v>
+        <v>https://www.lastampa.it/cultura/2024/11/14/news/new_york_moma_paola_antonelli-14804326/</v>
       </c>
       <c r="C178" t="str">
-        <v>Isabella Amato</v>
+        <v>giulia zonca</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v/>
+        <v>Sergio Castellitto si dimette dal Centro Sperimentale di Cinematografia: “Non è colpa degli attacchi”</v>
       </c>
       <c r="B179" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/19/news/animali_verso_insolito_geco_tokay_richiamo_accoppiamento-423508597/</v>
+        <v>https://www.lastampa.it/cultura/2024/11/13/news/sergio_castellitto_dimesso_giuli-14802620/</v>
       </c>
       <c r="C179" t="str">
-        <v>Noemi Penna</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Ogni notte sentono uno strano rumore fuori casa, ma quando trovano il colpevole non credono ai loro occhi (Video)</v>
+        <v>Il Ministro delle Cultura: «Dimissioni irrevocabili»</v>
       </c>
       <c r="B180" t="str">
-        <v>https://www.lastampa.it/la-zampa/2024/09/19/news/animali_verso_insolito_geco_tokay_richiamo_accoppiamento-423508597/</v>
+        <v>https://www.lastampa.it/cultura/2024/11/13/news/sergio_castellitto_dimesso_giuli-14802620/</v>
       </c>
       <c r="C180" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Rushdie, storia di un divieto fantasma</v>
+      </c>
+      <c r="B181" t="str">
+        <v>https://www.lastampa.it/cultura/2024/11/12/news/rushdie_storia_di_un_divieto_fantasma-14797426/</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Mario Baudino</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Dopo quasi quarant’anni, l’Alta Corte di giustizia indiana scopre che non esiste traccia del decreto che nell’88 mise al bando in tutto il paese «I versi satanici». E che è stato rispettato fino ad ora</v>
+      </c>
+      <c r="B182" t="str">
+        <v>https://www.lastampa.it/cultura/2024/11/12/news/rushdie_storia_di_un_divieto_fantasma-14797426/</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Mario Baudino</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v/>
+      </c>
+      <c r="B183" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Isabella Amato</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Aveva preso in affido dei gatti, ma tutto fallisce quando il cane di casa si innamora di uno di loro (Video)</v>
+      </c>
+      <c r="B184" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Isabella Amato</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v/>
+      </c>
+      <c r="B185" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_agnello_amicizia_speciale-423628895/</v>
+      </c>
+      <c r="C185" t="str">
         <v>Noemi Penna</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Il magico incontro fra il cane Max e Beau, l’agnellino rifiutato dalla madre (Video)</v>
+      </c>
+      <c r="B186" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_agnello_amicizia_speciale-423628895/</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Noemi Penna</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v/>
+      </c>
+      <c r="B187" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cavalli_mustang_adottano_gatto-423628909/</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Noemi Penna</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>I cavalli Stargazer e Nora fissano qualcosa, ecco la reazione al primo gatto che vedono nella vita (Video)</v>
+      </c>
+      <c r="B188" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cavalli_mustang_adottano_gatto-423628909/</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Noemi Penna</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v/>
+      </c>
+      <c r="B189" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/14/news/cane_reazione_adozione_zampa_cuore-423621955/</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Noemi Penna</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>La reazione del cane Niño quando capisce di esser stato adottato vi entrerà dritta nel cuore (Video)</v>
+      </c>
+      <c r="B190" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/14/news/cane_reazione_adozione_zampa_cuore-423621955/</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Noemi Penna</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v/>
+      </c>
+      <c r="B191" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Il destino del cane Lucy, da randagio nel deserto marocchino a una nuova vita sull’Isola di Man</v>
+      </c>
+      <c r="B192" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v/>
+      </c>
+      <c r="B193" t="str">
+        <v>https://www.lastampa.it/la-zampa/dossier/la-zampa-junior/2024/11/15/news/cane_finge_malato_senza_forze_bugia_verita-423628886/</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Il cane è senza forze e si rifiuta di giocare, sarà poi il veterinario a scoprire tutta la verità (Video)</v>
+      </c>
+      <c r="B194" t="str">
+        <v>https://www.lastampa.it/la-zampa/dossier/la-zampa-junior/2024/11/15/news/cane_finge_malato_senza_forze_bugia_verita-423628886/</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v/>
+      </c>
+      <c r="B195" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cani_umani_somiglianza_cosa_dice_la_scienza-423628859/</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Noemi Penna</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Ma è vero che cani e proprietari tendono a somigliarsi? Ecco cosa dice la scienza</v>
+      </c>
+      <c r="B196" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cani_umani_somiglianza_cosa_dice_la_scienza-423628859/</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Noemi Penna</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v/>
+      </c>
+      <c r="B197" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Groff: “In Trentino lo spray anti-orso sarebbe utile, ma serve anche conoscenza della fauna”</v>
+      </c>
+      <c r="B198" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v/>
+      </c>
+      <c r="B199" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/10/news/escursionista_smarrito_salvato_cane_randagio-423608826/</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Isabella Amato</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Un escursionista smarrito a 5.000 metri di quota vede un cane randagio apparire dal nulla: “Ho deciso di seguirlo e mi ha salvato”</v>
+      </c>
+      <c r="B200" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/10/news/escursionista_smarrito_salvato_cane_randagio-423608826/</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Isabella Amato</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>La lunga battaglia di Lucille Bogan</v>
+      </c>
+      <c r="B201" t="str">
+        <v>https://www.lastampa.it/specchio/rubriche/forte-e-chiara/2024/11/10/news/la_lunga_battaglia_di_lucille_bogan-14790037/</v>
+      </c>
+      <c r="C201" t="str">
+        <v>chiara francini</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Sessalescenti di ritorno</v>
+      </c>
+      <c r="B202" t="str">
+        <v>https://www.lastampa.it/specchio/2024/11/10/news/sessalescenti_di_ritorno-14786618/</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Gianluca Nicoletti</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Ai romani hanno rubato la città</v>
+      </c>
+      <c r="B203" t="str">
+        <v>https://www.lastampa.it/specchio/2024/11/10/news/ai_romani_hanno_rubato_la_citta-14786761/</v>
+      </c>
+      <c r="C203" t="str">
+        <v>igiaba scego</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Care ragazze, smettete di auto-sabotarvi Essere la migliore versione di sé non è obbligatorio (e rovina l’umore)</v>
+      </c>
+      <c r="B204" t="str">
+        <v>https://www.lastampa.it/specchio/2024/11/10/news/care_ragazze_smettete_di_auto-sabotarvi_essere_la_migliore_versione_di_se_non_e_obbligatorio_e_rovina_l_umore-14790015/</v>
+      </c>
+      <c r="C204" t="str">
+        <v>roselina salemi</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v/>
+      </c>
+      <c r="B205" t="str">
+        <v>https://www.lastampa.it/specchio/temi/2024/11/10/news/a_lei_la_coppia_a_lui_il_potere-14786357/</v>
+      </c>
+      <c r="C205" t="str">
+        <v>guia soncini</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Di coppia e di potere</v>
+      </c>
+      <c r="B206" t="str">
+        <v>https://www.lastampa.it/specchio/temi/2024/11/10/news/a_lei_la_coppia_a_lui_il_potere-14786357/</v>
+      </c>
+      <c r="C206" t="str">
+        <v>guia soncini</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>L’amore moderno</v>
+      </c>
+      <c r="B207" t="str">
+        <v>https://www.lastampa.it/specchio/relazioni/2024/11/10/news/l_amore_moderno-14786748/</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Maria Corbi</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>La guerra culturale sugli 883</v>
+      </c>
+      <c r="B208" t="str">
+        <v>https://www.lastampa.it/specchio/2024/11/10/news/la_guerra_culturale_sugli_883-14786688/</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Maria Laura Rodotà</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Rosenthal: “La mia è stata una vita di arte ma non credo nel collezionismo”</v>
+      </c>
+      <c r="B209" t="str">
+        <v>https://www.lastampa.it/specchio/rubriche/domenica-con/2024/11/10/news/la_mia_e_stata_una_vita_di_arte_ma_non_credo_nel_collezionismo_al_massimo_nei_souvenir-14790060/</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Alain Elkann</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v/>
+      </c>
+      <c r="B210" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>La cucina della Stampa</v>
+      </c>
+      <c r="B211" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v/>
+      </c>
+      <c r="B212" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Metternich</v>
+      </c>
+      <c r="B213" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v/>
+      </c>
+      <c r="B214" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Pillole</v>
+      </c>
+      <c r="B215" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v/>
+      </c>
+      <c r="B216" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Sotto la mole</v>
+      </c>
+      <c r="B217" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v/>
+      </c>
+      <c r="B218" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>La Zampa</v>
+      </c>
+      <c r="B219" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v/>
+      </c>
+      <c r="B220" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Tuttolibri</v>
+      </c>
+      <c r="B221" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v/>
+      </c>
+      <c r="B222" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Viaggiando</v>
+      </c>
+      <c r="B223" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/profilo_newsletter.jsp?testata=lastampa</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v/>
+      </c>
+      <c r="B224" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/audio/ma_i_tagli_in_stile_musk_a_roma_servirebbero-14807481/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Ma i tagli in stile Musk a Roma servirebbero</v>
+      </c>
+      <c r="B225" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/audio/ma_i_tagli_in_stile_musk_a_roma_servirebbero-14807481/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v/>
+      </c>
+      <c r="B226" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/audio/la_vergogna_dellalbergatore_che_respinge_i_clienti_israeliani-14807484/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>La vergogna dell'albergatore che respinge i clienti israeliani</v>
+      </c>
+      <c r="B227" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/audio/la_vergogna_dellalbergatore_che_respinge_i_clienti_israeliani-14807484/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v/>
+      </c>
+      <c r="B228" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/audio/quei_bimbi_in_poverta_nel_paese_senza_servizi-14807516/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Quei bimbi in povertà nel Paese senza servizi</v>
+      </c>
+      <c r="B229" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/audio/quei_bimbi_in_poverta_nel_paese_senza_servizi-14807516/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v/>
+      </c>
+      <c r="B230" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/audio/se_nella_lotta_a_parole_vince_chi_sa_illudere-14807495/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Se nella lotta a parole vince chi sa illudere</v>
+      </c>
+      <c r="B231" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/15/audio/se_nella_lotta_a_parole_vince_chi_sa_illudere-14807495/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v/>
+      </c>
+      <c r="B232" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/audio/crescita_litalia_perde_il_treno-14804306/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Perché l'Italia non sale sul treno della crescita</v>
+      </c>
+      <c r="B233" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/audio/crescita_litalia_perde_il_treno-14804306/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v/>
+      </c>
+      <c r="B234" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/audio/un_maxi_piano_ue_per_aiutare_lauto-14804321/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C234" t="str">
+        <v>pasquale tridico*</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Un maxi piano Ue per aiutare l'auto</v>
+      </c>
+      <c r="B235" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/audio/un_maxi_piano_ue_per_aiutare_lauto-14804321/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C235" t="str">
+        <v>pasquale tridico*</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v/>
+      </c>
+      <c r="B236" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/audio/nucleare_il_si_di_meloni_che_non_pensa_al_clima-14804336/?ref=-BH-I0-P-S7-T1</v>
+      </c>
+      <c r="C236" t="str">
+        <v>francesca santolini</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Nucleare, il sì di Meloni che non pensa al clima</v>
+      </c>
+      <c r="B237" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/14/audio/nucleare_il_si_di_meloni_che_non_pensa_al_clima-14804336/?ref=-BH-I0-P-S7-T1</v>
+      </c>
+      <c r="C237" t="str">
+        <v>francesca santolini</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v/>
+      </c>
+      <c r="B238" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/13/audio/cosi_lucraina_e_sola_a_combattere_putin-14801369/?ref=-BH-I0-P-S8-T1</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Così l'Ucraina è sola a combattere Putin</v>
+      </c>
+      <c r="B239" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/13/audio/cosi_lucraina_e_sola_a_combattere_putin-14801369/?ref=-BH-I0-P-S8-T1</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v/>
+      </c>
+      <c r="B240" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/13/audio/il_nord_nella_morsa_della_nuova_poverta-14801364/?ref=-BH-I0-P-S9-T1</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Il Nord nella morsa della nuova povertà</v>
+      </c>
+      <c r="B241" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/13/audio/il_nord_nella_morsa_della_nuova_poverta-14801364/?ref=-BH-I0-P-S9-T1</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v/>
+      </c>
+      <c r="B242" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/13/audio/se_fra_schlein_e_meloni_la_distanza_e_siderale-14801355/?ref=-BH-I0-P-S10-T1</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Se fra Schlein e Meloni la distanza è siderale</v>
+      </c>
+      <c r="B243" t="str">
+        <v>https://www.lastampa.it/editoriali/lettere-e-idee/2024/11/13/audio/se_fra_schlein_e_meloni_la_distanza_e_siderale-14801355/?ref=-BH-I0-P-S10-T1</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v/>
+      </c>
+      <c r="B244" t="str">
+        <v>https://www.lastampa.it/tecnologia/dossier/diventare-genitori-digitali/2024/11/12/news/controllo_e_personalizzazione_sui_social_gli_strumenti_per_guidare_i_ragazzi_sui_social_network-423616093/</v>
+      </c>
+      <c r="C244" t="str">
+        <v>di  Giulia Cimpanelli</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Controllo e personalizzazione sui social: gli strumenti per guidare i ragazzi sui social network</v>
+      </c>
+      <c r="B245" t="str">
+        <v>https://www.lastampa.it/tecnologia/dossier/diventare-genitori-digitali/2024/11/12/news/controllo_e_personalizzazione_sui_social_gli_strumenti_per_guidare_i_ragazzi_sui_social_network-423616093/</v>
+      </c>
+      <c r="C245" t="str">
+        <v>di  Giulia Cimpanelli</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v/>
+      </c>
+      <c r="B246" t="str">
+        <v>https://www.lastampa.it/il-gusto/dossier/tutta-un-altra-birra-/2024/11/11/news/sommelier_birra_abbinamenti-423609917/</v>
+      </c>
+      <c r="C246" t="str">
+        <v>di Stefano Pesce</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Quando l’abbinamento si fa duro, arriva il sommelier della birra</v>
+      </c>
+      <c r="B247" t="str">
+        <v>https://www.lastampa.it/il-gusto/dossier/tutta-un-altra-birra-/2024/11/11/news/sommelier_birra_abbinamenti-423609917/</v>
+      </c>
+      <c r="C247" t="str">
+        <v>di Stefano Pesce</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v/>
+      </c>
+      <c r="B248" t="str">
+        <v>https://www.lastampa.it/salute/dossier/oncoline/2024/11/09/news/tumori_il_64_dei_pazienti_con_mutazioni_genetiche_in_depressione_per_la_paura_di_ammalarsi-423607483/</v>
+      </c>
+      <c r="C248" t="str">
+        <v>di  Irma D'Aria</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Tumori, il 64% dei pazienti con mutazioni genetiche in depressione per la paura di ammalarsi</v>
+      </c>
+      <c r="B249" t="str">
+        <v>https://www.lastampa.it/salute/dossier/oncoline/2024/11/09/news/tumori_il_64_dei_pazienti_con_mutazioni_genetiche_in_depressione_per_la_paura_di_ammalarsi-423607483/</v>
+      </c>
+      <c r="C249" t="str">
+        <v>di  Irma D'Aria</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v/>
+      </c>
+      <c r="B250" t="str">
+        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/11/12/news/migrazione_sanitaria_alloggi_casamica_tumori-423614482/</v>
+      </c>
+      <c r="C250" t="str">
+        <v>di  Mara Magistroni</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Un milione di persone in 3 anni in viaggio per curarsi</v>
+      </c>
+      <c r="B251" t="str">
+        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/11/12/news/migrazione_sanitaria_alloggi_casamica_tumori-423614482/</v>
+      </c>
+      <c r="C251" t="str">
+        <v>di  Mara Magistroni</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v/>
+      </c>
+      <c r="B252" t="str">
+        <v>https://www.lastampa.it/speciale/scienza/il-cielo/2024/11/15/audio/addio_alla_materia_oscura_il_nuovo_universo_del_telescopio_spaziale_webb-14808385/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Addio alla materia oscura? Il nuovo Universo del telescopio spaziale Webb</v>
+      </c>
+      <c r="B253" t="str">
+        <v>https://www.lastampa.it/speciale/scienza/il-cielo/2024/11/15/audio/addio_alla_materia_oscura_il_nuovo_universo_del_telescopio_spaziale_webb-14808385/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v/>
+      </c>
+      <c r="B254" t="str">
+        <v>https://www.lastampa.it/esteri/2024/11/15/audio/germania_meta_dei_tedeschi_non_crede_piu_nella_democrazia-14808305/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C254" t="str">
+        <v>uski audino</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Germania, metà dei tedeschi non crede più nella democrazia</v>
+      </c>
+      <c r="B255" t="str">
+        <v>https://www.lastampa.it/esteri/2024/11/15/audio/germania_meta_dei_tedeschi_non_crede_piu_nella_democrazia-14808305/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C255" t="str">
+        <v>uski audino</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v/>
+      </c>
+      <c r="B256" t="str">
+        <v>https://www.lastampa.it/torino/2024/11/15/audio/la_forza_di_alessia_refolo_la_campionessa_paralimpica_di_arrampicata_ora_vuole_diventare_mental_coach-14808269/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>La forza di Alessia Refolo: la campionessa paralimpica di arrampicata ora vuole diventare mental coach</v>
+      </c>
+      <c r="B257" t="str">
+        <v>https://www.lastampa.it/torino/2024/11/15/audio/la_forza_di_alessia_refolo_la_campionessa_paralimpica_di_arrampicata_ora_vuole_diventare_mental_coach-14808269/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v/>
+      </c>
+      <c r="B258" t="str">
+        <v>https://www.lastampa.it/esteri/2024/11/15/audio/il_mistero_della_morte_a_belgrado_dello_chef_e_dissidente_russo_alexei_zimin_il_suo_ristorante_a_londra_nel_mirino_di_puti-14808258/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C258" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Il mistero della morte a Belgrado dello chef e dissidente russo Alexei Zimin, 'il suo ristorante a Londra nel mirino di Putin'</v>
+      </c>
+      <c r="B259" t="str">
+        <v>https://www.lastampa.it/esteri/2024/11/15/audio/il_mistero_della_morte_a_belgrado_dello_chef_e_dissidente_russo_alexei_zimin_il_suo_ristorante_a_londra_nel_mirino_di_puti-14808258/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v/>
+      </c>
+      <c r="B260" t="str">
+        <v>https://www.lastampa.it/verbano-cusio-ossola/2024/11/15/audio/ghiffa_la_minoranza_chiede_trasparenza_sul_camion-cucina-14807297/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Ghiffa, la minoranza chiede trasparenza sul camion-cucina</v>
+      </c>
+      <c r="B261" t="str">
+        <v>https://www.lastampa.it/verbano-cusio-ossola/2024/11/15/audio/ghiffa_la_minoranza_chiede_trasparenza_sul_camion-cucina-14807297/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v/>
+      </c>
+      <c r="B262" t="str">
+        <v>https://www.lastampa.it/biella/2024/11/15/audio/lindependent_book_tour_a_biella_alla_scoperta_degli_editori_piemontesi-14806515/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>L'Independent Book Tour a Biella alla scoperta degli editori piemontesi</v>
+      </c>
+      <c r="B263" t="str">
+        <v>https://www.lastampa.it/biella/2024/11/15/audio/lindependent_book_tour_a_biella_alla_scoperta_degli_editori_piemontesi-14806515/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C263" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v/>
+      </c>
+      <c r="B264" t="str">
+        <v>https://www.lastampa.it/alessandria/2024/11/15/audio/duecento_bancarelle_per_la_tanto_attesa_fiera_di_santa_caterina-14806918/?ref=-BH-I0-P-S7-T1</v>
+      </c>
+      <c r="C264" t="str">
+        <v>giovanna galliano</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Duecento bancarelle per la tanto attesa Fiera di Santa Caterina</v>
+      </c>
+      <c r="B265" t="str">
+        <v>https://www.lastampa.it/alessandria/2024/11/15/audio/duecento_bancarelle_per_la_tanto_attesa_fiera_di_santa_caterina-14806918/?ref=-BH-I0-P-S7-T1</v>
+      </c>
+      <c r="C265" t="str">
+        <v>giovanna galliano</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v/>
+      </c>
+      <c r="B266" t="str">
+        <v>https://www.lastampa.it/aosta/2024/11/15/audio/strage_delle_guide_indagato_listruttore_i_satelliti_svelano_il_tracciato_delle_vittime-14808226/?ref=-BH-I0-P-S8-T1</v>
+      </c>
+      <c r="C266" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Strage delle guide: indagato l'istruttore, i satelliti svelano il tracciato delle vittime</v>
+      </c>
+      <c r="B267" t="str">
+        <v>https://www.lastampa.it/aosta/2024/11/15/audio/strage_delle_guide_indagato_listruttore_i_satelliti_svelano_il_tracciato_delle_vittime-14808226/?ref=-BH-I0-P-S8-T1</v>
+      </c>
+      <c r="C267" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v/>
+      </c>
+      <c r="B268" t="str">
+        <v>https://www.lastampa.it/cronaca/2024/11/15/audio/i_giubbotti_antiproiettile_del_2005_in_dotazione_ai_carabinieri_funzionano_ancora-14808188/?ref=-BH-I0-P-S9-T1</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>I giubbotti antiproiettile del 2005 in dotazione ai carabinieri funzionano ancora?</v>
+      </c>
+      <c r="B269" t="str">
+        <v>https://www.lastampa.it/cronaca/2024/11/15/audio/i_giubbotti_antiproiettile_del_2005_in_dotazione_ai_carabinieri_funzionano_ancora-14808188/?ref=-BH-I0-P-S9-T1</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v/>
+      </c>
+      <c r="B270" t="str">
+        <v>https://www.lastampa.it/torino/2024/11/15/audio/don_ciotti_bettazzi_un_poeta_della_pace_ci_ha_lasciato_il_suo_esempio-14808170/?ref=-BH-I0-P-S10-T1</v>
+      </c>
+      <c r="C270" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Don Ciotti: “Bettazzi un poeta della pace, ci ha lasciato il suo esempio”</v>
+      </c>
+      <c r="B271" t="str">
+        <v>https://www.lastampa.it/torino/2024/11/15/audio/don_ciotti_bettazzi_un_poeta_della_pace_ci_ha_lasciato_il_suo_esempio-14808170/?ref=-BH-I0-P-S10-T1</v>
+      </c>
+      <c r="C271" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v/>
+      </c>
+      <c r="B272" t="str">
+        <v>https://www.onepodcast.it/brand/onepodcast/2024/11/10/audio/andrea_matteucci_il_mostro_di_aosta_-_13-17683393/</v>
+      </c>
+      <c r="C272" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Andrea Matteucci: il Mostro di Aosta - 1/3</v>
+      </c>
+      <c r="B273" t="str">
+        <v>https://www.onepodcast.it/brand/onepodcast/2024/11/10/audio/andrea_matteucci_il_mostro_di_aosta_-_13-17683393/</v>
+      </c>
+      <c r="C273" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v/>
+      </c>
+      <c r="B274" t="str">
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/12/audio/tintoria_230_gianluca_gazzoli-17698452/</v>
+      </c>
+      <c r="C274" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Tintoria #230 Gianluca Gazzoli</v>
+      </c>
+      <c r="B275" t="str">
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/12/audio/tintoria_230_gianluca_gazzoli-17698452/</v>
+      </c>
+      <c r="C275" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v/>
+      </c>
+      <c r="B276" t="str">
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/11/audio/ep_4_-_una_carneficina-17688565/</v>
+      </c>
+      <c r="C276" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Ep. 4 - Una carneficina</v>
+      </c>
+      <c r="B277" t="str">
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/11/audio/ep_4_-_una_carneficina-17688565/</v>
+      </c>
+      <c r="C277" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v/>
+      </c>
+      <c r="B278" t="str">
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/11/audio/episodio_34_come_prendere_le_decisioni_migliori-17688567/</v>
+      </c>
+      <c r="C278" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Episodio 34: Come prendere le decisioni migliori</v>
+      </c>
+      <c r="B279" t="str">
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/11/audio/episodio_34_come_prendere_le_decisioni_migliori-17688567/</v>
+      </c>
+      <c r="C279" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v/>
+      </c>
+      <c r="B280" t="str">
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/07/audio/s3e1_camihawke_trovare_il_proprio_posto_nel_mondo-17660302/</v>
+      </c>
+      <c r="C280" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>S3E1| Camihawke: trovare il proprio post(o) nel mondo</v>
+      </c>
+      <c r="B281" t="str">
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/07/audio/s3e1_camihawke_trovare_il_proprio_posto_nel_mondo-17660302/</v>
+      </c>
+      <c r="C281" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v/>
+      </c>
+      <c r="B282" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/14/news/scalable_capital_investimenti-14805399/</v>
+      </c>
+      <c r="C282" t="str">
+        <v>sandra riccio</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Saldutti (Scalabale Capital): “Gli investimenti vanno pianificati in base agli obiettivi personali, non in base all’esito delle elezioni”</v>
+      </c>
+      <c r="B283" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/14/news/scalable_capital_investimenti-14805399/</v>
+      </c>
+      <c r="C283" t="str">
+        <v>sandra riccio</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>«Economia e politica non viaggiano sempre di pari passo, un investitore prudente non dovrebbe lasciarsi influenzare dai cicli elettorali»</v>
+      </c>
+      <c r="B284" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/14/news/scalable_capital_investimenti-14805399/</v>
+      </c>
+      <c r="C284" t="str">
+        <v>sandra riccio</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v/>
+      </c>
+      <c r="B285" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/13/news/trump_dazi_euro_dollaro-14801145/</v>
+      </c>
+      <c r="C285" t="str">
+        <v>Caro Alberto De Casa</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Trump e il rischio dazi mettono al tappeto l’euro, sceso ai minimi da un anno sul dollaro</v>
+      </c>
+      <c r="B286" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/13/news/trump_dazi_euro_dollaro-14801145/</v>
+      </c>
+      <c r="C286" t="str">
+        <v>Caro Alberto De Casa</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Secondo l’analisi dell’S&amp;P; 500 la moneta Usa tende ad apprezzarsi durante le presidenze dei democratici e a svalutarsi quando alla Casa Bianca ci sono presidenti repubblicani. Donald sarà un’eccezione?</v>
+      </c>
+      <c r="B287" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/13/news/trump_dazi_euro_dollaro-14801145/</v>
+      </c>
+      <c r="C287" t="str">
+        <v>Caro Alberto De Casa</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>&lt;a href=""&gt;&lt;img src="https://www.gedistatic.it/content/gnn/img/lastampa/2024/11/12/214220759-71c5dcb2-893b-42f8-9788-13b5aa982c47.jpg" width="" height="" alt="Il rendiconto condominiale dopo la riforma"&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="B288" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/12/news/rendiconto_condominio_riforma_modifiche-14801209/</v>
+      </c>
+      <c r="C288" t="str">
+        <v>PIER PAOLO BOSSO</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Il rendiconto condominiale dopo la riforma</v>
+      </c>
+      <c r="B289" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/12/news/rendiconto_condominio_riforma_modifiche-14801209/</v>
+      </c>
+      <c r="C289" t="str">
+        <v>PIER PAOLO BOSSO</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Voci di entrata e di uscita, situazione patrimoniale, fondi disponibili e riserve, ecco cosa è cambiato dopo le modifiche alla legge 220 del 2012</v>
+      </c>
+      <c r="B290" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/12/news/rendiconto_condominio_riforma_modifiche-14801209/</v>
+      </c>
+      <c r="C290" t="str">
+        <v>PIER PAOLO BOSSO</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Assiom Forex, a Torino il 31mo Congresso</v>
+      </c>
+      <c r="B291" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/12/news/assiom_forex_a_torino_il_31mo_congresso-14799148/</v>
+      </c>
+      <c r="C291" t="str">
+        <v>sandra riccio</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Intesa San Paolo è main partner dell’evento. Al lingotto il 14 e 15 febbraio</v>
+      </c>
+      <c r="B292" t="str">
+        <v>https://www.lastampa.it/tuttosoldi/2024/11/12/news/assiom_forex_a_torino_il_31mo_congresso-14799148/</v>
+      </c>
+      <c r="C292" t="str">
+        <v>sandra riccio</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v/>
+      </c>
+      <c r="B293" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/con_l_occhio_dei_telescopi_alle_origini_del_big_bang-14795951/</v>
+      </c>
+      <c r="C293" t="str">
+        <v>Maria Francesca Matteucci – Università di Trieste</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Con l’occhio dei telescopi alle origini del Big Bang</v>
+      </c>
+      <c r="B294" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/con_l_occhio_dei_telescopi_alle_origini_del_big_bang-14795951/</v>
+      </c>
+      <c r="C294" t="str">
+        <v>Maria Francesca Matteucci – Università di Trieste</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Il nuovo anno accademico dell’Accademia dei Lincei inaugurato dalla professoressa di fisica stellare Maria Francesca Matteucci</v>
+      </c>
+      <c r="B295" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/con_l_occhio_dei_telescopi_alle_origini_del_big_bang-14795951/</v>
+      </c>
+      <c r="C295" t="str">
+        <v>Maria Francesca Matteucci – Università di Trieste</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v/>
+      </c>
+      <c r="B296" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/alla_scoperta_dell_energia_oscura_e_del_lato_misterioso_dell_universo_con_il_nobel_adam_riess-14795947/</v>
+      </c>
+      <c r="C296" t="str">
+        <v>Antonaldo Diaferio - Presidente di Infini.to, Planetario di Torino</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Alla scoperta dell’energia oscura e del lato misterioso dell’Universo con il Nobel Adam Riess</v>
+      </c>
+      <c r="B297" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/alla_scoperta_dell_energia_oscura_e_del_lato_misterioso_dell_universo_con_il_nobel_adam_riess-14795947/</v>
+      </c>
+      <c r="C297" t="str">
+        <v>Antonaldo Diaferio - Presidente di Infini.to, Planetario di Torino</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>“100 anni extragalattici”: a Torino l’evento in occasione dell’Astronomy Day. Che cosa non abbiamo capito del cosmo?</v>
+      </c>
+      <c r="B298" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/alla_scoperta_dell_energia_oscura_e_del_lato_misterioso_dell_universo_con_il_nobel_adam_riess-14795947/</v>
+      </c>
+      <c r="C298" t="str">
+        <v>Antonaldo Diaferio - Presidente di Infini.to, Planetario di Torino</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>&lt;a href=""&gt;&lt;img src="https://www.gedistatic.it/content/gnn/img/lastampa/2024/11/11/105151566-893d0f0a-d812-417a-97bc-0d6bb2edba43.jpg" width="" height="" alt="Gli antichi sigilli cilindrici della Mesopotamia che spalancarono l’era della scrittura"&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="B299" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/gli_antichi_sigilli_cilindrici_della_mesopotamia_che_spalancarono_l_era_della_scrittura-14795955/</v>
+      </c>
+      <c r="C299" t="str">
+        <v>Paola Mariano</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Gli antichi sigilli cilindrici della Mesopotamia che spalancarono l’era della scrittura</v>
+      </c>
+      <c r="B300" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/gli_antichi_sigilli_cilindrici_della_mesopotamia_che_spalancarono_l_era_della_scrittura-14795955/</v>
+      </c>
+      <c r="C300" t="str">
+        <v>Paola Mariano</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>La scoperta di un team dell’Università di Bologna: risalgono a 6 mila anni fa e venivano utilizzati per registrare gli scambi commerciali</v>
+      </c>
+      <c r="B301" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/13/news/gli_antichi_sigilli_cilindrici_della_mesopotamia_che_spalancarono_l_era_della_scrittura-14795955/</v>
+      </c>
+      <c r="C301" t="str">
+        <v>Paola Mariano</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Tutta la città in appena 15 minuti. Ecco come si rivoluziona la mobilità urbana</v>
+      </c>
+      <c r="B302" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/06/news/tutta_la_citta_in_appena_15_minuti_ecco_come_si_rivoluziona_la_mobilita_urbana-14772515/</v>
+      </c>
+      <c r="C302" t="str">
+        <v>Antonio Lo Campo</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Smartphone e network: il progetto di Marta González, vincitrice dell’edizione 2024 del “Premio Lagrange – Fondazione Crt” dedicato ai sistemi complessi</v>
+      </c>
+      <c r="B303" t="str">
+        <v>https://www.lastampa.it/tuttoscienze/2024/11/06/news/tutta_la_citta_in_appena_15_minuti_ecco_come_si_rivoluziona_la_mobilita_urbana-14772515/</v>
+      </c>
+      <c r="C303" t="str">
+        <v>Antonio Lo Campo</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v/>
+      </c>
+      <c r="B304" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/15/news/10_pizze_prodotti_autunno-423629112/</v>
+      </c>
+      <c r="C304" t="str">
+        <v>di  Lara De Luna</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>La meraviglia di 10 pizze con il cuore nell’autunno</v>
+      </c>
+      <c r="B305" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/15/news/10_pizze_prodotti_autunno-423629112/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C305" t="str">
+        <v>di  Lara De Luna</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Creazioni che grazie ai prodotti stagionali diventano uniche: cambiano gli impasti e si arricchiscono i topping, con ingredienti come tartufo, friarielli, funghi chiodini e la zucca, proposta anche in crema delicata</v>
+      </c>
+      <c r="B306" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/15/news/10_pizze_prodotti_autunno-423629112/</v>
+      </c>
+      <c r="C306" t="str">
+        <v>di  Lara De Luna</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Moreno Cedroni, i quattro decenni che hanno cambiato la cucina di mare</v>
+      </c>
+      <c r="B307" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/10/14/news/moreno_cedroni_chef_40_anni_madonnina_pescatore-423622265/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C307" t="str">
+        <v>di  Giulia Mancini</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Lo chef, due stelle Michelin con la sua Madonnina del Pescatore di Senigallia, festeggia e racconta i primi 40 anni del ristorante.Un percorso di costante innovazione, partendo dalla cucina tradizionale degli esordi fino alla svolta creativa,passando per lo studio della salumeria di pesce</v>
+      </c>
+      <c r="B308" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/10/14/news/moreno_cedroni_chef_40_anni_madonnina_pescatore-423622265/</v>
+      </c>
+      <c r="C308" t="str">
+        <v>di  Giulia Mancini</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v/>
+      </c>
+      <c r="B309" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/15/news/caffo_amaro_del_capo_calabria-423629097/</v>
+      </c>
+      <c r="C309" t="str">
+        <v>di  Giulia Mancini</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Dalla Sicilia alla Calabria, l’epopea dei Caffo: così il loro Amaro del Capo ha conquistato l’Italia</v>
+      </c>
+      <c r="B310" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/15/news/caffo_amaro_del_capo_calabria-423629097/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C310" t="str">
+        <v>di  Giulia Mancini</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Gli esordi a fine Ottocento con una piccola distilleria in provincia di Catania, poi il trasferimento vicino a Capo Vaticano, che ha dato il nome al loro maggiore successo. L’evoluzione dell’azienda, ora proprietaria anche di marchi come Borsci e Petrus Boonekamp</v>
+      </c>
+      <c r="B311" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/15/news/caffo_amaro_del_capo_calabria-423629097/</v>
+      </c>
+      <c r="C311" t="str">
+        <v>di  Giulia Mancini</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Dal salmone al tonno, gli aiuti naturali contro il fegato grasso</v>
+      </c>
+      <c r="B312" t="str">
+        <v>https://www.lastampa.it/il-gusto/dossier/benessere-a-tavola-/2024/11/15/news/salmone_tonno_naturali_contro_fegato_grasso-423629137/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C312" t="str">
+        <v>di Giorgio e Caterina Calabrese</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Un organo fondamentale che può essere colpito dalla steatosi epatica. Per scongiurare il pericolo, vita sana e alimenti ricchi di grassi Omega3</v>
+      </c>
+      <c r="B313" t="str">
+        <v>https://www.lastampa.it/il-gusto/dossier/benessere-a-tavola-/2024/11/15/news/salmone_tonno_naturali_contro_fegato_grasso-423629137/</v>
+      </c>
+      <c r="C313" t="str">
+        <v>di Giorgio e Caterina Calabrese</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Qualità top e prezzi competitivi: così il Brunello cresce negli Usa e sorpassa i francesi</v>
+      </c>
+      <c r="B314" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/14/news/benvenuto_brunello_qualita_top_e_prezzi_competitivi_cresce_negli_usa_e_sorpassa_i_francesi-423627581/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C314" t="str">
+        <v>dalla nostra inviata  Lara Loreti</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Negli Stati Uniti il principe dei rossi italiani sale sia in valore sia in volumi. Fabrizio Bindocci, presidente del Consorzio: “Noi offriamo qualcosa in più grazie a un territorio unico”. E sui bianchi: “La Toscana punti sul Vermentino”</v>
+      </c>
+      <c r="B315" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/14/news/benvenuto_brunello_qualita_top_e_prezzi_competitivi_cresce_negli_usa_e_sorpassa_i_francesi-423627581/</v>
+      </c>
+      <c r="C315" t="str">
+        <v>dalla nostra inviata  Lara Loreti</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Il caffè a 50 euro a picco su una vertiginosa scogliera</v>
+      </c>
+      <c r="B316" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/11/14/video/il_caffe_a_50_euro_a_picco_su_una_vertiginosa_scogliera-423626945/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C316" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v/>
+      </c>
+      <c r="B317" t="str">
+        <v>https://www.lastampa.it/green-and-blue/2024/11/12/video/crateri_in_siberia_le_esplosioni_sono_legate_al_riscaldamento_globale-423613748/</v>
+      </c>
+      <c r="C317" t="str">
+        <v>di Eleonora Giovinazzo</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Crateri in Siberia: le esplosioni sono legate al riscaldamento globale</v>
+      </c>
+      <c r="B318" t="str">
+        <v>https://www.lastampa.it/green-and-blue/2024/11/12/video/crateri_in_siberia_le_esplosioni_sono_legate_al_riscaldamento_globale-423613748/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C318" t="str">
+        <v>di Eleonora Giovinazzo</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Cop29, l'appello degli scienziati ai governi: "Basta con le bufale sul clima nei social network"</v>
+      </c>
+      <c r="B319" t="str">
+        <v>https://www.lastampa.it/green-and-blue/dossier/cop29/2024/11/15/news/bufale_clima_appello_scienziati_fake_news-423626719/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C319" t="str">
+        <v>di Giacomo Talignani -</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v/>
+      </c>
+      <c r="B320" t="str">
+        <v>https://www.lastampa.it/green-and-blue/2024/11/14/news/alieni_documentario_specie_animali_invasive_barbascurax-423619705/</v>
+      </c>
+      <c r="C320" t="str">
+        <v>di Davide Cavalleri</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>“Alieni”, il documentario sulle specie animali invasive raccontate da BarbascuraX |</v>
+      </c>
+      <c r="B321" t="str">
+        <v>https://www.lastampa.it/green-and-blue/2024/11/14/news/alieni_documentario_specie_animali_invasive_barbascurax-423619705/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C321" t="str">
+        <v>di Davide Cavalleri</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Video</v>
+      </c>
+      <c r="B322" t="str">
+        <v>https://www.lastampa.it/green-and-blue/2024/11/14/video/alieni_dal_granchio_blu_alla_formica_di_fuoco_le_specie_invasive_che_minacciano_litalia-423621892/</v>
+      </c>
+      <c r="C322" t="str">
+        <v>di Davide Cavalleri</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>I geoglifi millenari nel deserto cileno devastati da motociclisti e jeep</v>
+      </c>
+      <c r="B323" t="str">
+        <v>https://www.lastampa.it/green-and-blue/2024/11/11/video/i_geoglifi_millenari_nel_deserto_cileno_devastati_da_motociclisti_e_jeep-423611122/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C323" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Ondate di calore, siccità, incendi e alluvioni: perché è colpa del cambiamento climatico</v>
+      </c>
+      <c r="B324" t="str">
+        <v>https://www.lastampa.it/green-and-blue/2024/11/15/news/crisi_clima_ondate_di_calore_siccita_incendi_e_alluvioni-423612819/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C324" t="str">
+        <v>di Pasquale Raicaldo</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Federico Bianchi, lo scienziato che insegue le nuvole</v>
+      </c>
+      <c r="B325" t="str">
+        <v>https://www.lastampa.it/green-and-blue/dossier/tutti-per-la-terra/2024/11/15/news/federico_bianchi_cloudseeding_meteorologia-423617556/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C325" t="str">
+        <v>di Gaia Scorza Barcellona</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v/>
+      </c>
+      <c r="B326" t="str">
+        <v>https://www.lastampa.it/tecnologia/dossier/social-network/2024/11/14/video/milano_diventa_la_citta_di_tiktok_il_raduno_di_creator_e_influencer-423628171/</v>
+      </c>
+      <c r="C326" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Milano diventa la città di TikTok: il raduno di creator e influencer</v>
+      </c>
+      <c r="B327" t="str">
+        <v>https://www.lastampa.it/tecnologia/dossier/social-network/2024/11/14/video/milano_diventa_la_citta_di_tiktok_il_raduno_di_creator_e_influencer-423628171/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C327" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Il pensiero politico di Elon Musk</v>
+      </c>
+      <c r="B328" t="str">
+        <v>https://www.lastampa.it/tecnologia/2024/11/14/news/il_pensiero_politico_di_elon_musk-423627769/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C328" t="str">
+        <v>di Arcangelo Rociola</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>L’impero di Musk lavora nei campi in cui l’umanità può ancora dimostrare la sua grandezza: energia, spazio, internet, comunicazione. Il suo progetto imprenditoriale è anche un progetto politico. Allearsi con Trump serve a realizzarlo, al di là di ogni possibile conflitto di interessi</v>
+      </c>
+      <c r="B329" t="str">
+        <v>https://www.lastampa.it/tecnologia/2024/11/14/news/il_pensiero_politico_di_elon_musk-423627769/</v>
+      </c>
+      <c r="C329" t="str">
+        <v>di Arcangelo Rociola</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v/>
+      </c>
+      <c r="B330" t="str">
+        <v>https://www.lastampa.it/tecnologia/dossier/intelligenza-artificiale/2024/11/15/news/google_gemini_su_iphone_intelligenza_artificiale-423629132/</v>
+      </c>
+      <c r="C330" t="str">
+        <v>di  Pier Luigi Pisa</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Google, la app di Gemini è disponibile anche su iPhone</v>
+      </c>
+      <c r="B331" t="str">
+        <v>https://www.lastampa.it/tecnologia/dossier/intelligenza-artificiale/2024/11/15/news/google_gemini_su_iphone_intelligenza_artificiale-423629132/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C331" t="str">
+        <v>di  Pier Luigi Pisa</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>L'applicazione dell'intelligenza artificiale più avanzata di Google, Gemini, ha ora una versione dedicata anche per iOS</v>
+      </c>
+      <c r="B332" t="str">
+        <v>https://www.lastampa.it/tecnologia/dossier/intelligenza-artificiale/2024/11/15/news/google_gemini_su_iphone_intelligenza_artificiale-423629132/</v>
+      </c>
+      <c r="C332" t="str">
+        <v>di  Pier Luigi Pisa</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Il pensiero politico di Elon Musk</v>
+      </c>
+      <c r="B333" t="str">
+        <v>https://www.lastampa.it/tecnologia/2024/11/14/news/il_pensiero_politico_di_elon_musk-423627766/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C333" t="str">
+        <v>di Arcangelo Rociola</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>L’impero di Musk lavora nei campi in cui l’umanità può ancora dimostrare la sua grandezza: energia, spazio, internet, comunicazione. Il suo progetto imprenditoriale è anche un progetto politico. Allearsi con Trump serve a realizzarlo, al di là di ogni possibile conflitto di interessi</v>
+      </c>
+      <c r="B334" t="str">
+        <v>https://www.lastampa.it/tecnologia/2024/11/14/news/il_pensiero_politico_di_elon_musk-423627766/</v>
+      </c>
+      <c r="C334" t="str">
+        <v>di Arcangelo Rociola</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Andrea Missori (Ceo Ericsson Italia): "5G e Starlink non sono in competizione. L'Italia dovrebbe trattare i dati come l'acqua o l'energia"</v>
+      </c>
+      <c r="B335" t="str">
+        <v>https://www.lastampa.it/tecnologia/2024/11/14/video/andrea_missori_ceo_ericsson_italia_5g_e_starlink_non_sono_in_competizione_litalia_dovrebbe_trattare_i_dati_come_lacqu-423623851/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C335" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Cinque innovazioni di Ericsson che avranno un impatto sul futuro delle telecomunicazioni</v>
+      </c>
+      <c r="B336" t="str">
+        <v>https://www.lastampa.it/tecnologia/2024/11/14/video/cinque_innovazioni_di_ericsson_che_in_futuro_faranno_la_differenza-423623722/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C336" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v/>
+      </c>
+      <c r="B337" t="str">
+        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/11/14/news/maculopatie_tanti_malati_non_sanno_di_esserlo-423626413/</v>
+      </c>
+      <c r="C337" t="str">
+        <v>di  Simone Valesini</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Maculopatie: sono tanti i malati che non sanno di esserlo</v>
+      </c>
+      <c r="B338" t="str">
+        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/11/14/news/maculopatie_tanti_malati_non_sanno_di_esserlo-423626413/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C338" t="str">
+        <v>di  Simone Valesini</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>L’iniziativa “Vediamoci Chiaro” ha offerto screening gratuiti a oltre 600 over 55 milanesi: il 5 percento delle persone visitate è risultato affetto da maculopatia, nonostante l’assenza di sintomi</v>
+      </c>
+      <c r="B339" t="str">
+        <v>https://www.lastampa.it/salute/dossier/labrevolution/2024/11/14/news/maculopatie_tanti_malati_non_sanno_di_esserlo-423626413/</v>
+      </c>
+      <c r="C339" t="str">
+        <v>di  Simone Valesini</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>Tanzania e Zanzibar, quali vaccinazioni fare?</v>
+      </c>
+      <c r="B340" t="str">
+        <v>https://www.lastampa.it/salute/dossier/vaccini/2024/11/14/news/tanzania_e_zanzibar_quali_vaccinazioni_fare-423626404/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C340" t="str">
+        <v>Risponde Federico Gobbi*</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>In questa rubrica gli specialisti rispondono a dubbi, perplessità e domande che riguardano i vaccini</v>
+      </c>
+      <c r="B341" t="str">
+        <v>https://www.lastampa.it/salute/dossier/vaccini/2024/11/14/news/tanzania_e_zanzibar_quali_vaccinazioni_fare-423626404/</v>
+      </c>
+      <c r="C341" t="str">
+        <v>Risponde Federico Gobbi*</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v/>
+      </c>
+      <c r="B342" t="str">
+        <v>https://www.lastampa.it/salute/2024/11/15/news/troppi_antibiotici_piu_vaccini_1_milione_di_morti_in_meno-423626969/</v>
+      </c>
+      <c r="C342" t="str">
+        <v>di  Donatella Zorzetto</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Troppi antibiotici, con più vaccini 1 milione di morti in meno all’anno</v>
+      </c>
+      <c r="B343" t="str">
+        <v>https://www.lastampa.it/salute/2024/11/15/news/troppi_antibiotici_piu_vaccini_1_milione_di_morti_in_meno-423626969/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C343" t="str">
+        <v>di  Donatella Zorzetto</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>I ricercatori hanno valutato l’impatto su diverse patologie di 44 vaccini mirati a 24 patogeni. Ciccozzi: “È la vera pandemia nascosta”</v>
+      </c>
+      <c r="B344" t="str">
+        <v>https://www.lastampa.it/salute/2024/11/15/news/troppi_antibiotici_piu_vaccini_1_milione_di_morti_in_meno-423626969/</v>
+      </c>
+      <c r="C344" t="str">
+        <v>di  Donatella Zorzetto</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>Aritmie, si cureranno con la radiochirurgia?</v>
+      </c>
+      <c r="B345" t="str">
+        <v>https://www.lastampa.it/salute/dossier/ospedali-di-eccellenza/2024/11/14/news/aritmie_tachicardia_ventricolare_radioablazione-423626396/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C345" t="str">
+        <v>di Dario Rubino</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>La radioablazione permetterebbe di raggiungere le zone aritmiche del cuore non accessibili con il trattamento standard. Grazie Tac sempre più avanzate –</v>
+      </c>
+      <c r="B346" t="str">
+        <v>https://www.lastampa.it/salute/dossier/ospedali-di-eccellenza/2024/11/14/news/aritmie_tachicardia_ventricolare_radioablazione-423626396/</v>
+      </c>
+      <c r="C346" t="str">
+        <v>di Dario Rubino</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v/>
+      </c>
+      <c r="B347" t="str">
+        <v>https://www.lastampa.it/salute/dossier/ospedali-di-eccellenza/2024/11/14/news/aritmie_tachicardia_ventricolare_radioablazione-423626396/</v>
+      </c>
+      <c r="C347" t="str">
+        <v>di Dario Rubino</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v/>
+      </c>
+      <c r="B348" t="str">
+        <v>https://www.lastampa.it/salute/dossier/ospedali-di-eccellenza/2024/11/14/news/aritmie_tachicardia_ventricolare_radioablazione-423626396/</v>
+      </c>
+      <c r="C348" t="str">
+        <v>di Dario Rubino</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>Vai al database degli ospedali di eccellenza per la Cardiologia</v>
+      </c>
+      <c r="B349" t="str">
+        <v>https://www.lastampa.it/salute/ospedali/ricerca/cardiologia/</v>
+      </c>
+      <c r="C349" t="str">
+        <v>di Dario Rubino</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v/>
+      </c>
+      <c r="B350" t="str">
+        <v>https://www.lastampa.it/salute/dossier/ospedali-di-eccellenza/2024/11/14/news/aritmie_tachicardia_ventricolare_radioablazione-423626396/</v>
+      </c>
+      <c r="C350" t="str">
+        <v>di Dario Rubino</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>Car-T, oltre 1400 pazienti trattati in Italia con la terapia cellulare anti cancro</v>
+      </c>
+      <c r="B351" t="str">
+        <v>https://www.lastampa.it/salute/2024/11/14/news/car-t_tumori_cervello_linfomi_leucemie_ail-423626364/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C351" t="str">
+        <v>di  Tiziana Moriconi</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Oggi le terapie cellulari sono sperimentate anche in tumori solidi con risultati incoraggianti, come dimostra lo studio appena pubblicato su Nature su 9 pazienti con tumori cerebrali. Al via la campagna Ail “Il futuro è già qui”, per fare il punto sui 5 anni di applicazione nella pratica clinica e sugli sviluppi futuri</v>
+      </c>
+      <c r="B352" t="str">
+        <v>https://www.lastampa.it/salute/2024/11/14/news/car-t_tumori_cervello_linfomi_leucemie_ail-423626364/</v>
+      </c>
+      <c r="C352" t="str">
+        <v>di  Tiziana Moriconi</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>Un neonato su 10 nasce prematuro, il 50% rischia un disturbo del neurosviluppo</v>
+      </c>
+      <c r="B353" t="str">
+        <v>https://www.lastampa.it/salute/2024/11/14/news/neonati_prematuri_disturbo_neurosviluppo-423625818/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C353" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>I neuropsichiatri dell'infanzia: “Seguire bebè e famiglie con programmi dedicati per intercettare i problemi e intervenire”</v>
+      </c>
+      <c r="B354" t="str">
+        <v>https://www.lastampa.it/salute/2024/11/14/news/neonati_prematuri_disturbo_neurosviluppo-423625818/</v>
+      </c>
+      <c r="C354" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v/>
+      </c>
+      <c r="B355" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/news/parigine_acqua_micellare_prodotto_piu_importante_skincare-423626053/</v>
+      </c>
+      <c r="C355" t="str">
+        <v>di  Martina Manfredi</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>Perché per le donne francesi l’acqua micellare è il prodotto più importante della skincare</v>
+      </c>
+      <c r="B356" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/news/parigine_acqua_micellare_prodotto_piu_importante_skincare-423626053/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C356" t="str">
+        <v>di  Martina Manfredi</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>La popolarità dell’acqua micellare in Francia è legata a un utilizzo che, secondo alcuni esperti, dovremmo riscoprire: non solo struccare il viso la sera, ma anche pulirlo al mattino, in un modo più delicato rispetto al sapone</v>
+      </c>
+      <c r="B357" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/news/parigine_acqua_micellare_prodotto_piu_importante_skincare-423626053/</v>
+      </c>
+      <c r="C357" t="str">
+        <v>di  Martina Manfredi</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>Acqua micellare: le formule cult e le ultime novità</v>
+      </c>
+      <c r="B358" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/foto/acqua_micellare_le_formule_cult_e_le_ultime_novita-423626008/1/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C358" t="str">
+        <v>di  Martina Manfredi</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v/>
+      </c>
+      <c r="B359" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/foto/acqua_micellare_le_formule_cult_e_le_ultime_novita-423626008/1/</v>
+      </c>
+      <c r="C359" t="str">
+        <v>di  Martina Manfredi</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>L’acqua micellare è una soluzione fresca e acquosa: le micelle, ispirate ai lipidi cutanei, agiscono come un magnete catturando trucco, particelle inquinanti e altre impurità, in modo delicato. Con molteplici funzioni in un solo gesto - deterge, lenisce e tonifica - questo prodotto è un cult nella skincare delle donne francesi. Di seguito, alcune delle acque micellari più famose e amate (francesi e non), accanto ad alcune delle ultime novità.</v>
+      </c>
+      <c r="B360" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/foto/acqua_micellare_le_formule_cult_e_le_ultime_novita-423626008/1/</v>
+      </c>
+      <c r="C360" t="str">
+        <v>di  Martina Manfredi</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v/>
+      </c>
+      <c r="B361" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/foto/acqua_micellare_le_formule_cult_e_le_ultime_novita-423626008/1/</v>
+      </c>
+      <c r="C361" t="str">
+        <v>di  Martina Manfredi</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v/>
+      </c>
+      <c r="B362" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/news/sweatpants_pantaloni_della_tuta_outfit_comfy_cool_come_si_portano-423612782/</v>
+      </c>
+      <c r="C362" t="str">
+        <v>di Donatella Genta</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>Sweatpants: così il pantalone della tuta è diventato un capo effortless chic</v>
+      </c>
+      <c r="B363" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/news/sweatpants_pantaloni_della_tuta_outfit_comfy_cool_come_si_portano-423612782/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C363" t="str">
+        <v>di Donatella Genta</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>La tuta sportiva remixata è la tendenza del momento. Ma perché ‘funzioni’ bisogna seguire una regola: sotto un capo sportivo, sopra un capo classico</v>
+      </c>
+      <c r="B364" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/15/news/sweatpants_pantaloni_della_tuta_outfit_comfy_cool_come_si_portano-423612782/</v>
+      </c>
+      <c r="C364" t="str">
+        <v>di Donatella Genta</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>Fallire è inevitabile, ma sbagliando si impara</v>
+      </c>
+      <c r="B365" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/13/news/fallire_e_inevitabile_ma_sbagliando_si_impara_ecco_come-423627269/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C365" t="str">
+        <v>di  Stefania Medetti</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>Spesso, quando non si sono raggiunti i propri obiettivi emerge un senso di inadeguatezza. Soprattutto le donne, pagano un alto prezzo emotivo per la paura di non riuscire a soddisfare gli altissimi standard che si sono poste. Ma cambiare si può e aiuta nelle relazioni in famiglia e nel lavoro. Ecco come</v>
+      </c>
+      <c r="B366" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/13/news/fallire_e_inevitabile_ma_sbagliando_si_impara_ecco_come-423627269/</v>
+      </c>
+      <c r="C366" t="str">
+        <v>di  Stefania Medetti</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>La pelle di Damiano diventa moda: una capsule collection con i suoi tatuaggi</v>
+      </c>
+      <c r="B367" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/14/news/la_pelle_di_damiano_diventa_moda_una_capsule_collection_con_i_suoi_tatuaggi-423624777/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C367" t="str">
+        <v>di  Anna Lupini</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>Damiano David, global ambassador del brand Diesel e il direttore creativo Glenn Martens co-progettano la collaborazione ideale: un'esclusiva capsule collection ispirata al musicista romano</v>
+      </c>
+      <c r="B368" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/14/news/la_pelle_di_damiano_diventa_moda_una_capsule_collection_con_i_suoi_tatuaggi-423624777/</v>
+      </c>
+      <c r="C368" t="str">
+        <v>di  Anna Lupini</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>Damiano David diventa moda: la collezione ispirata al suo corpo</v>
+      </c>
+      <c r="B369" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/11/14/video/damiano_david_diventa_moda_la_collezione_ispirata_al_suo_corpo-423624752/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C369" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v/>
+      </c>
+      <c r="B370" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/video/cane_stanco_visita_veterinario-423629254/</v>
+      </c>
+      <c r="C370" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>Così il cane "stanco" si comporta dal veterinario</v>
+      </c>
+      <c r="B371" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/video/cane_stanco_visita_veterinario-423629254/?ref=-BH-I0-P-S1-T1</v>
+      </c>
+      <c r="C371" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v/>
+      </c>
+      <c r="B372" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/video/cane_gatto_amicizia_affido-423629193/</v>
+      </c>
+      <c r="C372" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>Quell'amicizia speciale fra cane e gatto che fa fallire l'affido</v>
+      </c>
+      <c r="B373" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/video/cane_gatto_amicizia_affido-423629193/?ref=-BH-I0-P-S2-T1</v>
+      </c>
+      <c r="C373" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>Aveva preso in affido dei gatti, ma tutto fallisce quando il cane di casa si innamora di uno di loro</v>
+      </c>
+      <c r="B374" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/?ref=-BH-I0-P-S3-T1</v>
+      </c>
+      <c r="C374" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>Segui La Zampa su</v>
+      </c>
+      <c r="B375" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C375" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>Facebook (clicca qui)</v>
+      </c>
+      <c r="B376" t="str">
+        <v>https://www.facebook.com/lazampa.it/</v>
+      </c>
+      <c r="C376" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v/>
+      </c>
+      <c r="B377" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C377" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>,</v>
+      </c>
+      <c r="B378" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C378" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>Instagram (clicca qui)</v>
+      </c>
+      <c r="B379" t="str">
+        <v>https://www.instagram.com/lazampait/?hl=it</v>
+      </c>
+      <c r="C379" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v/>
+      </c>
+      <c r="B380" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C380" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>e</v>
+      </c>
+      <c r="B381" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C381" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>X (clicca qui)</v>
+      </c>
+      <c r="B382" t="str">
+        <v>https://twitter.com/lazampa</v>
+      </c>
+      <c r="C382" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v/>
+      </c>
+      <c r="B383" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C383" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>- Non perderti le migliori notizie e storie,</v>
+      </c>
+      <c r="B384" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C384" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>iscriviti alla newsletter settimanale e gratuita (clicca qui)</v>
+      </c>
+      <c r="B385" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+      </c>
+      <c r="C385" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v/>
+      </c>
+      <c r="B386" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/gatto_affido_cane_innamorato-423629181/</v>
+      </c>
+      <c r="C386" t="str">
+        <v>di Isabella Amato</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>Groff: “In Trentino lo spray anti-orso sarebbe utile, ma serve anche conoscenza della fauna”</v>
+      </c>
+      <c r="B387" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/?ref=-BH-I0-P-S4-T1</v>
+      </c>
+      <c r="C387" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>Segui La Zampa su</v>
+      </c>
+      <c r="B388" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C388" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>Facebook (clicca qui)</v>
+      </c>
+      <c r="B389" t="str">
+        <v>https://www.facebook.com/lazampa.it/</v>
+      </c>
+      <c r="C389" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v/>
+      </c>
+      <c r="B390" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C390" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>,</v>
+      </c>
+      <c r="B391" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C391" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>Instagram (clicca qui)</v>
+      </c>
+      <c r="B392" t="str">
+        <v>https://www.instagram.com/lazampait/?hl=it</v>
+      </c>
+      <c r="C392" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v/>
+      </c>
+      <c r="B393" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C393" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>e</v>
+      </c>
+      <c r="B394" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C394" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>X (clicca qui)</v>
+      </c>
+      <c r="B395" t="str">
+        <v>https://twitter.com/lazampa</v>
+      </c>
+      <c r="C395" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v/>
+      </c>
+      <c r="B396" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C396" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>- Non perderti le migliori notizie e storie,</v>
+      </c>
+      <c r="B397" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C397" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>iscriviti alla newsletter settimanale e gratuita (clicca qui)</v>
+      </c>
+      <c r="B398" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+      </c>
+      <c r="C398" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v/>
+      </c>
+      <c r="B399" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/trentino_spray_anti_orso_groff_intervista-423629035/</v>
+      </c>
+      <c r="C399" t="str">
+        <v>di Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>Il destino del cane Lucy, da randagio nel deserto marocchino a una nuova vita sull’Isola di Man</v>
+      </c>
+      <c r="B400" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/?ref=-BH-I0-P-S5-T1</v>
+      </c>
+      <c r="C400" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>Segui La Zampa su</v>
+      </c>
+      <c r="B401" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C401" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>Facebook (clicca qui)</v>
+      </c>
+      <c r="B402" t="str">
+        <v>https://www.facebook.com/lazampa.it/</v>
+      </c>
+      <c r="C402" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v/>
+      </c>
+      <c r="B403" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C403" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>,</v>
+      </c>
+      <c r="B404" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C404" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>Instagram (clicca qui)</v>
+      </c>
+      <c r="B405" t="str">
+        <v>https://www.instagram.com/lazampait/?hl=it</v>
+      </c>
+      <c r="C405" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v/>
+      </c>
+      <c r="B406" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C406" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>e</v>
+      </c>
+      <c r="B407" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C407" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>X (clicca qui)</v>
+      </c>
+      <c r="B408" t="str">
+        <v>https://twitter.com/lazampa</v>
+      </c>
+      <c r="C408" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v/>
+      </c>
+      <c r="B409" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C409" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>- Non perderti le migliori notizie e storie,</v>
+      </c>
+      <c r="B410" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C410" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>iscriviti alla newsletter settimanale e gratuita (clicca qui)</v>
+      </c>
+      <c r="B411" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+      </c>
+      <c r="C411" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v/>
+      </c>
+      <c r="B412" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_randagio_marocco_adozione-423628991/</v>
+      </c>
+      <c r="C412" t="str">
+        <v>di Ivo Albertucci</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>Deve fare terapia in acqua, ma il cane Barb ha altre idee: la soluzione è geniale</v>
+      </c>
+      <c r="B413" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/?ref=-BH-I0-P-S6-T1</v>
+      </c>
+      <c r="C413" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>Segui La Zampa su</v>
+      </c>
+      <c r="B414" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/</v>
+      </c>
+      <c r="C414" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Facebook (clicca qui)</v>
+      </c>
+      <c r="B415" t="str">
+        <v>https://www.facebook.com/lazampa.it/</v>
+      </c>
+      <c r="C415" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v/>
+      </c>
+      <c r="B416" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/</v>
+      </c>
+      <c r="C416" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>,</v>
+      </c>
+      <c r="B417" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/</v>
+      </c>
+      <c r="C417" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>Instagram (clicca qui)</v>
+      </c>
+      <c r="B418" t="str">
+        <v>https://www.instagram.com/lazampait/?hl=it</v>
+      </c>
+      <c r="C418" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v/>
+      </c>
+      <c r="B419" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/</v>
+      </c>
+      <c r="C419" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>e</v>
+      </c>
+      <c r="B420" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/</v>
+      </c>
+      <c r="C420" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>X (clicca qui)</v>
+      </c>
+      <c r="B421" t="str">
+        <v>https://twitter.com/lazampa</v>
+      </c>
+      <c r="C421" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v/>
+      </c>
+      <c r="B422" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/</v>
+      </c>
+      <c r="C422" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>- Non perderti le migliori notizie e storie,</v>
+      </c>
+      <c r="B423" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/</v>
+      </c>
+      <c r="C423" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>iscriviti alla newsletter settimanale e gratuita (clicca qui)</v>
+      </c>
+      <c r="B424" t="str">
+        <v>https://www.lastampa.it/edicola/profilo/newsletter.jsp</v>
+      </c>
+      <c r="C424" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v/>
+      </c>
+      <c r="B425" t="str">
+        <v>https://www.lastampa.it/la-zampa/2024/11/15/news/cane_idroterapia_esercizi_paralisi_zampe_soluzione-423628929/</v>
+      </c>
+      <c r="C425" t="str">
+        <v>di Aurora Iberti</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v/>
+      </c>
+      <c r="B426" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/eicma_2024_bosch_nuovi_radar_su_ktm_e_abs_da_pista_su_ducati-14803953/</v>
+      </c>
+      <c r="C426" t="str">
+        <v>alessandro vai</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>Eicma 2024: Bosch, nuovi radar su Ktm e Abs da pista su Ducati</v>
+      </c>
+      <c r="B427" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/eicma_2024_bosch_nuovi_radar_su_ktm_e_abs_da_pista_su_ducati-14803953/</v>
+      </c>
+      <c r="C427" t="str">
+        <v>alessandro vai</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>La missione dell’azienda è di semplificare la vita ai motociclisti e di renderli più sicuri</v>
+      </c>
+      <c r="B428" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/eicma_2024_bosch_nuovi_radar_su_ktm_e_abs_da_pista_su_ducati-14803953/</v>
+      </c>
+      <c r="C428" t="str">
+        <v>alessandro vai</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v/>
+      </c>
+      <c r="B429" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/acea_nel_2025_ulteriore_rallentamento_della_domande_di_veicoli_elettrici-14803445/</v>
+      </c>
+      <c r="C429" t="str">
+        <v>omar abu eideh</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>Acea, “nel 2025 ulteriore rallentamento della domande di veicoli elettrici”</v>
+      </c>
+      <c r="B430" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/acea_nel_2025_ulteriore_rallentamento_della_domande_di_veicoli_elettrici-14803445/</v>
+      </c>
+      <c r="C430" t="str">
+        <v>omar abu eideh</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>L'associazione si prepara a “un peggioramento delle prospettive per il mercato dei veicoli elettrici a batteria”; e rivede le stime commerciali per il 2025</v>
+      </c>
+      <c r="B431" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/acea_nel_2025_ulteriore_rallentamento_della_domande_di_veicoli_elettrici-14803445/</v>
+      </c>
+      <c r="C431" t="str">
+        <v>omar abu eideh</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v/>
+      </c>
+      <c r="B432" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/rolls-royce_ghost_ii_il_lusso_a_quattro_ruote_sterzanti-14803029/</v>
+      </c>
+      <c r="C432" t="str">
+        <v>mattia eccheli</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>Rolls-Royce Ghost II, il lusso a quattro ruote sterzanti</v>
+      </c>
+      <c r="B433" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/rolls-royce_ghost_ii_il_lusso_a_quattro_ruote_sterzanti-14803029/</v>
+      </c>
+      <c r="C433" t="str">
+        <v>mattia eccheli</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>La casa di Goodwood ha aggiornato il modello di accesso alla gamma, ma che non costa meno di 275.000 euro, tasse escluse. È più comodo del divano di casa</v>
+      </c>
+      <c r="B434" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/13/news/rolls-royce_ghost_ii_il_lusso_a_quattro_ruote_sterzanti-14803029/</v>
+      </c>
+      <c r="C434" t="str">
+        <v>mattia eccheli</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v/>
+      </c>
+      <c r="B435" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/12/news/suv_honda_giulia_lamarca_testimonial_per_l_accessibilita_e_l_inclusivita-14800474/</v>
+      </c>
+      <c r="C435" t="str">
+        <v>andrea barsanti</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>Suv Honda, Giulia Lamarca testimonial per l’accessibilità e l’inclusività</v>
+      </c>
+      <c r="B436" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/12/news/suv_honda_giulia_lamarca_testimonial_per_l_accessibilita_e_l_inclusivita-14800474/</v>
+      </c>
+      <c r="C436" t="str">
+        <v>andrea barsanti</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>La 31enne torinese si muove in carrozzina dopo un incidente nel 2011. La casa giapponese l’ha scelta per una nuova campagna social</v>
+      </c>
+      <c r="B437" t="str">
+        <v>https://www.lastampa.it/motori/2024/11/12/news/suv_honda_giulia_lamarca_testimonial_per_l_accessibilita_e_l_inclusivita-14800474/</v>
+      </c>
+      <c r="C437" t="str">
+        <v>andrea barsanti</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v/>
+      </c>
+      <c r="B438" t="str">
+        <v>https://www.lastampa.it/viaggi/2024/11/11/news/cosa_vedere_valverde_catania_etna-14796212/</v>
+      </c>
+      <c r="C438" t="str">
+        <v>Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>Alla scoperta di Valverde dove il tempo e la tradizione conservano storia, natura e sapori siciliani</v>
+      </c>
+      <c r="B439" t="str">
+        <v>https://www.lastampa.it/viaggi/2024/11/11/news/cosa_vedere_valverde_catania_etna-14796212/</v>
+      </c>
+      <c r="C439" t="str">
+        <v>Fulvio Cerutti</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v/>
+      </c>
+      <c r="B440" t="str">
+        <v>https://www.lastampa.it/viaggi/mondo/2024/11/07/news/marco_polo_xi_an_via_seta-14764518/</v>
+      </c>
+      <c r="C440" t="str">
+        <v>Marco Moretti</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>In viaggio con Marco Polo (6) – A Xi’An, il ricchissimo crocevia di popoli, merci e fedi sulla Via della Seta</v>
+      </c>
+      <c r="B441" t="str">
+        <v>https://www.lastampa.it/viaggi/mondo/2024/11/07/news/marco_polo_xi_an_via_seta-14764518/</v>
+      </c>
+      <c r="C441" t="str">
+        <v>Marco Moretti</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v/>
+      </c>
+      <c r="B442" t="str">
+        <v>https://www.lastampa.it/viaggi/mondo/2024/10/31/news/cosa_vedere_a_lord_howe-14758037/</v>
+      </c>
+      <c r="C442" t="str">
+        <v>Marco Moretti</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>48 ore a Lord Howe, l’isola sparti clima tra freddo Mar di Tasman e caldo Mar dei Coralli</v>
+      </c>
+      <c r="B443" t="str">
+        <v>https://www.lastampa.it/viaggi/mondo/2024/10/31/news/cosa_vedere_a_lord_howe-14758037/</v>
+      </c>
+      <c r="C443" t="str">
+        <v>Marco Moretti</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v/>
+      </c>
+      <c r="B444" t="str">
+        <v>https://www.lastampa.it/viaggi/2024/10/28/news/flamsbana_bergen_norvegia-14755509/</v>
+      </c>
+      <c r="C444" t="str">
+        <v>Marina Palumbo</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>48 ore a Bergen, in Norvegia: l’incanto dei fiordi e di uno dei treni più spettacolari d’Europa</v>
+      </c>
+      <c r="B445" t="str">
+        <v>https://www.lastampa.it/viaggi/2024/10/28/news/flamsbana_bergen_norvegia-14755509/</v>
+      </c>
+      <c r="C445" t="str">
+        <v>Marina Palumbo</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>La nostra guida di viaggio per sfruttare al meglio due giorni vedendo le attrazioni più emozionanti</v>
+      </c>
+      <c r="B446" t="str">
+        <v>https://www.lastampa.it/viaggi/2024/10/28/news/flamsbana_bergen_norvegia-14755509/</v>
+      </c>
+      <c r="C446" t="str">
+        <v>Marina Palumbo</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v/>
+      </c>
+      <c r="B447" t="str">
+        <v>https://www.lastampa.it/viaggi/2024/10/24/news/gran_bretagna_guglielmo_marconi-14743873/</v>
+      </c>
+      <c r="C447" t="str">
+        <v>marco berchi</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>Qui, dove le onde del “wireless” hanno cambiato il mondo. Viaggio in Gran Bretagna, sulle tracce di Guglielmo Marconi</v>
+      </c>
+      <c r="B448" t="str">
+        <v>https://www.lastampa.it/viaggi/2024/10/24/news/gran_bretagna_guglielmo_marconi-14743873/</v>
+      </c>
+      <c r="C448" t="str">
+        <v>marco berchi</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v/>
+      </c>
+      <c r="B449" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/13/news/sara_orient_express_corinthian_la_piu_grande_nave_da_crociera_a_vela-14803372/</v>
+      </c>
+      <c r="C449" t="str">
+        <v>Fabio Pozzo</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>Sarà Orient Express Corinthian la più grande nave da crociera a vela</v>
+      </c>
+      <c r="B450" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/13/news/sara_orient_express_corinthian_la_piu_grande_nave_da_crociera_a_vela-14803372/</v>
+      </c>
+      <c r="C450" t="str">
+        <v>Fabio Pozzo</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>Svelati gli interni della prima delle due unità che vedono lo sbarco dello storico marchio nel mercato. A bordo 54 suite disegnate dall’architetto d’Angeac, che si rifanno all’epoca d’oro del treno da mille e una notte. IL VIDEO</v>
+      </c>
+      <c r="B451" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/13/news/sara_orient_express_corinthian_la_piu_grande_nave_da_crociera_a_vela-14803372/</v>
+      </c>
+      <c r="C451" t="str">
+        <v>Fabio Pozzo</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v/>
+      </c>
+      <c r="B452" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/11/news/marina_militare_il_video_che_racconta_il_viaggio_agli_estremi_del_mondo-14797574/</v>
+      </c>
+      <c r="C452" t="str">
+        <v>COSIMO ANDRIA, ALESSANDRO LENTINI*</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>Marina Militare, il video che racconta il viaggio agli estremi del mondo</v>
+      </c>
+      <c r="B453" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/11/news/marina_militare_il_video_che_racconta_il_viaggio_agli_estremi_del_mondo-14797574/</v>
+      </c>
+      <c r="C453" t="str">
+        <v>COSIMO ANDRIA, ALESSANDRO LENTINI*</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>Nel 2024 le navi con le stellette hanno raggiunto i punti più lontani a Nord, Sud, Est e Ovest del globo. L’Alliance ha toccato gli 82° di latitudine nel Mar Glaciale Artico e il Vespucci ha passato Capo Horn. Le immagini di “Oltre”</v>
+      </c>
+      <c r="B454" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/11/news/marina_militare_il_video_che_racconta_il_viaggio_agli_estremi_del_mondo-14797574/</v>
+      </c>
+      <c r="C454" t="str">
+        <v>COSIMO ANDRIA, ALESSANDRO LENTINI*</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v/>
+      </c>
+      <c r="B455" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/11/news/ambrogio_fogar_le_figlie_e_soldini_per_400_giorni_intorno_al_mondo-14796966/</v>
+      </c>
+      <c r="C455" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>Ambrogio Fogar, le figlie e Soldini per “400 giorni intorno al mondo”</v>
+      </c>
+      <c r="B456" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/11/news/ambrogio_fogar_le_figlie_e_soldini_per_400_giorni_intorno_al_mondo-14796966/</v>
+      </c>
+      <c r="C456" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>Tea ripubblica il primo libro dell’esploratore milanese, che racconta la circumnavigazione da Est verso Ovest con il Surprise, terminato 50 anni fa. La presentazione a BookCity il 14 novembre al Castello Sforzesco a Milano</v>
+      </c>
+      <c r="B457" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/11/news/ambrogio_fogar_le_figlie_e_soldini_per_400_giorni_intorno_al_mondo-14796966/</v>
+      </c>
+      <c r="C457" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v/>
+      </c>
+      <c r="B458" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/10/news/vendee_globe_i_40_gladiatori_dell_oceano_sono_partiti-14794018/</v>
+      </c>
+      <c r="C458" t="str">
+        <v>Fabio Pozzo</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>Vendée Globe, i 40 gladiatori dell’Oceano sono partiti</v>
+      </c>
+      <c r="B459" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/10/news/vendee_globe_i_40_gladiatori_dell_oceano_sono_partiti-14794018/</v>
+      </c>
+      <c r="C459" t="str">
+        <v>Fabio Pozzo</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>Oggi lo start del giro del mondo da Les Sables d’Olonne in Francia, subito in testa Herrmann. Undicesimo l’italiano Pedote. Un salto nel blu di oltre 24 mila miglia, il tempo da battere è di 74 giorni. L’emozione del dock out, una folla pazzesca abbraccia gli skipper</v>
+      </c>
+      <c r="B460" t="str">
+        <v>https://www.lastampa.it/mare/2024/11/10/news/vendee_globe_i_40_gladiatori_dell_oceano_sono_partiti-14794018/</v>
+      </c>
+      <c r="C460" t="str">
+        <v>Fabio Pozzo</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v/>
+      </c>
+      <c r="B461" t="str">
+        <v>https://www.lastampa.it/montagna/2024/11/12/news/il_super_g_triplica_dopo_courmayeur_l_apres-ski_piu_famoso_d_italia_sbarca_a_cervinia_e_campiglio-14800238/</v>
+      </c>
+      <c r="C461" t="str">
+        <v>Max Cassani</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>Il Super G triplica: dopo Courmayeur, l’apres-ski più famoso d’Italia sbarca a Cervinia e Campiglio</v>
+      </c>
+      <c r="B462" t="str">
+        <v>https://www.lastampa.it/montagna/2024/11/12/news/il_super_g_triplica_dopo_courmayeur_l_apres-ski_piu_famoso_d_italia_sbarca_a_cervinia_e_campiglio-14800238/</v>
+      </c>
+      <c r="C462" t="str">
+        <v>Max Cassani</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>Prossime aperture: il 7, 14 e 21 dicembre. L’ideatore del format, Andrea Baccuini: «Le montagne sono un’opportunità imprenditoriale straordinaria. Così abbiamo creato la prima catena italiana di Mountain club per i giovani»</v>
+      </c>
+      <c r="B463" t="str">
+        <v>https://www.lastampa.it/montagna/2024/11/12/news/il_super_g_triplica_dopo_courmayeur_l_apres-ski_piu_famoso_d_italia_sbarca_a_cervinia_e_campiglio-14800238/</v>
+      </c>
+      <c r="C463" t="str">
+        <v>Max Cassani</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v/>
+      </c>
+      <c r="B464" t="str">
+        <v>https://www.lastampa.it/montagna/2024/11/12/news/mercatini_di_natale_cinque_esperienze_da_non_perdere_per_vivere_la_magia_dell_avvento-14797284/</v>
+      </c>
+      <c r="C464" t="str">
+        <v>Chiara Todesco</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>Mercatini di Natale: sei esperienze da non perdere per vivere la magia dell’Avvento</v>
+      </c>
+      <c r="B465" t="str">
+        <v>https://www.lastampa.it/montagna/2024/11/12/news/mercatini_di_natale_cinque_esperienze_da_non_perdere_per_vivere_la_magia_dell_avvento-14797284/</v>
+      </c>
+      <c r="C465" t="str">
+        <v>Chiara Todesco</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>Dai castelli ai trenini, tra chef e campane che risuonano: ecco qualche idea originale e qualche novità da scoprire nel periodo prenatalizio</v>
+      </c>
+      <c r="B466" t="str">
+        <v>https://www.lastampa.it/montagna/2024/11/12/news/mercatini_di_natale_cinque_esperienze_da_non_perdere_per_vivere_la_magia_dell_avvento-14797284/</v>
+      </c>
+      <c r="C466" t="str">
+        <v>Chiara Todesco</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v/>
+      </c>
+      <c r="B467" t="str">
+        <v>https://www.lastampa.it/montagna/2024/10/23/news/al_via_la_stagione_invernale_in_valle_d_aosta_date_di_apertura_novita_e_grandi_eventi-14743599/</v>
+      </c>
+      <c r="C467" t="str">
+        <v>Chiara Todesco</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>Al via la stagione invernale in Valle d’Aosta: date di apertura, novità e grandi eventi</v>
+      </c>
+      <c r="B468" t="str">
+        <v>https://www.lastampa.it/montagna/2024/10/23/news/al_via_la_stagione_invernale_in_valle_d_aosta_date_di_apertura_novita_e_grandi_eventi-14743599/</v>
+      </c>
+      <c r="C468" t="str">
+        <v>Chiara Todesco</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>Sabato 26 ottobre aprono gli impianti a Cervinia, seguono poi a fine novembre gli altri comprensori. Ci sono tariffe scontate per i giovani e tre appuntamenti con la Coppa del mondo</v>
+      </c>
+      <c r="B469" t="str">
+        <v>https://www.lastampa.it/montagna/2024/10/23/news/al_via_la_stagione_invernale_in_valle_d_aosta_date_di_apertura_novita_e_grandi_eventi-14743599/</v>
+      </c>
+      <c r="C469" t="str">
+        <v>Chiara Todesco</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v/>
+      </c>
+      <c r="B470" t="str">
+        <v>https://www.lastampa.it/montagna/2024/10/18/news/la_valanga_azzurra_la_gloriosa_epopea_dello_sci_italiano_arriva_sul_grande_schermo-14726109/</v>
+      </c>
+      <c r="C470" t="str">
+        <v>Max Cassani</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>“La Valanga Azzurra”: la gloriosa epopea dello sci italiano arriva sul grande schermo</v>
+      </c>
+      <c r="B471" t="str">
+        <v>https://www.lastampa.it/montagna/2024/10/18/news/la_valanga_azzurra_la_gloriosa_epopea_dello_sci_italiano_arriva_sul_grande_schermo-14726109/</v>
+      </c>
+      <c r="C471" t="str">
+        <v>Max Cassani</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>Abbiamo visto in anteprima il docufilm di Giovanni Veronesi sulla leggendaria nazionale degli Anni ’70. Dopo la presentazione di oggi alla Festa del Cinema di Roma, sarà per tre giorni nelle sale di tutta Italia. Ecco dove a Milano e Torino</v>
+      </c>
+      <c r="B472" t="str">
+        <v>https://www.lastampa.it/montagna/2024/10/18/news/la_valanga_azzurra_la_gloriosa_epopea_dello_sci_italiano_arriva_sul_grande_schermo-14726109/</v>
+      </c>
+      <c r="C472" t="str">
+        <v>Max Cassani</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>“Voglio gli occhi blu”: come cambiare colore (e con quali rischi)</v>
+      </c>
+      <c r="B473" t="str">
+        <v>https://www.lastampa.it/salute/2024/07/12/news/cambiare_colore_occhi_rischi-423391028/</v>
+      </c>
+      <c r="C473" t="str">
+        <v>Irma d'Aria</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>E PizzAut invade le strade: 100 food truck per arrivare in tutta Italia</v>
+      </c>
+      <c r="B474" t="str">
+        <v>https://www.lastampa.it/il-gusto/2024/07/12/news/pizzaut_100_food_truck_per_arrivare_in_tutta_italia-423390995/</v>
+      </c>
+      <c r="C474" t="str">
+        <v>Jacopo Fontaneto</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>l ritorno del wrap dress: perché dobbiamo sceglierlo</v>
+      </c>
+      <c r="B475" t="str">
+        <v>https://www.lastampa.it/moda-e-beauty/2024/07/12/news/wrap_dress_come_si_scelgono_e_come_si_portano_estate_2024_diane_von_furstenberg-423362108/</v>
+      </c>
+      <c r="C475" t="str">
+        <v>Donatella Genta</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>Le spunte blu a pagamento “ingannano gli utenti”: le accuse della UE a Twitter</v>
+      </c>
+      <c r="B476" t="str">
+        <v>https://www.lastampa.it/tecnologia/2024/07/12/news/twitter_spunta_blu_ingannevole_accuse_unione_europea_elon_musk-423392410/</v>
+      </c>
+      <c r="C476" t="str">
+        <v>Emanuele Capone</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>“Con il cambiamento climatico il caffè è in pericolo. Ma abbiamo gli strumenti per un futuro sostenibile”</v>
+      </c>
+      <c r="B477" t="str">
+        <v>https://www.lastampa.it/green-and-blue/2024/07/13/news/caffe_sostenibilita_agricoltura-423390916/</v>
+      </c>
+      <c r="C477" t="str">
+        <v>Nicolas Lozito</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v/>
+      </c>
+      <c r="B478" t="str">
+        <v>https://www.consigli.it/elimina-capelli-grigi-alpecin?ref=1429</v>
+      </c>
+      <c r="C478" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>CAPELLI COLORE NATURALE</v>
+      </c>
+      <c r="B479" t="str">
+        <v>https://www.consigli.it/elimina-capelli-grigi-alpecin?ref=1429</v>
+      </c>
+      <c r="C479" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>Elimina i capelli grigi in sole 4 settimane senza tinture</v>
+      </c>
+      <c r="B480" t="str">
+        <v>https://www.consigli.it/elimina-capelli-grigi-alpecin?ref=1429</v>
+      </c>
+      <c r="C480" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v/>
+      </c>
+      <c r="B481" t="str">
+        <v>https://www.consigli.it/oralb-miglior-spazzolino-elettrico?ref=1891</v>
+      </c>
+      <c r="C481" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>OFFERTE A TEMPO LIMITATO</v>
+      </c>
+      <c r="B482" t="str">
+        <v>https://www.consigli.it/oralb-miglior-spazzolino-elettrico?ref=1891</v>
+      </c>
+      <c r="C482" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>Il miglior spazzolino elettrico Oral B: ecco quale scegliere</v>
+      </c>
+      <c r="B483" t="str">
+        <v>https://www.consigli.it/oralb-miglior-spazzolino-elettrico?ref=1891</v>
+      </c>
+      <c r="C483" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v/>
+      </c>
+      <c r="B484" t="str">
+        <v>https://www.consigli.it/migliori-robot-aspirapolvere-lavapavimenti?ref=1957</v>
+      </c>
+      <c r="C484" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>OFFERTE A TEMPO LIMITATO</v>
+      </c>
+      <c r="B485" t="str">
+        <v>https://www.consigli.it/migliori-robot-aspirapolvere-lavapavimenti?ref=1957</v>
+      </c>
+      <c r="C485" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>I 5 migliori robot aspirapolvere e lavapavimenti del 2024</v>
+      </c>
+      <c r="B486" t="str">
+        <v>https://www.consigli.it/migliori-robot-aspirapolvere-lavapavimenti?ref=1957</v>
+      </c>
+      <c r="C486" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v/>
+      </c>
+      <c r="B487" t="str">
+        <v>https://www.consigli.it/creme-lifting-per-viso?ref=1660</v>
+      </c>
+      <c r="C487" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>LIFTING IMMEDIATO</v>
+      </c>
+      <c r="B488" t="str">
+        <v>https://www.consigli.it/creme-lifting-per-viso?ref=1660</v>
+      </c>
+      <c r="C488" t="str">
+        <v>Не найден</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>Creme lifting per il viso: ecco le 5 che danno un effetto immediato</v>
+      </c>
+      <c r="B489" t="str">
+        <v>https://www.consigli.it/creme-lifting-per-viso?ref=1660</v>
+      </c>
+      <c r="C489" t="str">
+        <v>Не найден</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C180"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C489"/>
   </ignoredErrors>
 </worksheet>
 </file>